--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.249</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.995</v>
+        <v>19.412</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.216</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.019</v>
+        <v>21.324</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.984</v>
+        <v>16.234</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.02914931502728</v>
+        <v>0.1488344272919555</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.02914931502728</v>
+        <v>19.24823391759936</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.02914931502728</v>
+        <v>27.58626972710716</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.02914931502728</v>
+        <v>-3.429769130257331</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.02914931502728</v>
+        <v>15.53284841514086</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.02914931502728</v>
+        <v>23.33303412719728</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.02914931502728</v>
+        <v>4.294192950588478</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.02914931502728</v>
+        <v>26.63269254311525</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.02914931502728</v>
+        <v>35.44292574305997</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.02914931502728</v>
+        <v>26.51165054139677</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.02914931502728</v>
+        <v>36.44358419897175</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.02914931502728</v>
+        <v>43.06999955866117</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.02914931502728</v>
+        <v>5.105282540171071</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.02914931502728</v>
+        <v>27.80812115203254</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.02914931502728</v>
+        <v>37.80200670545072</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.02914931502728</v>
+        <v>4.490567195505161</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.02914931502728</v>
+        <v>23.5976178782122</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.02914931502728</v>
+        <v>31.93899644671013</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.02914931502728</v>
+        <v>0.8952812687721341</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.02914931502728</v>
+        <v>19.86373242909577</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.02914931502728</v>
+        <v>27.66859261067271</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.02914931502728</v>
+        <v>8.625989807139387</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.02914931502728</v>
+        <v>30.97210544613746</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.02914931502728</v>
+        <v>39.78596975363668</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.02914931502728</v>
+        <v>30.85359389755503</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.02914931502728</v>
+        <v>40.79294315963377</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.02914931502728</v>
+        <v>47.42141051831403</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.02914931502728</v>
+        <v>9.444157682032834</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.02914931502728</v>
+        <v>32.1600006709199</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.02914931502728</v>
+        <v>42.15528537927584</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.02914931502728</v>
+        <v>12.53698219689967</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.02914931502728</v>
+        <v>31.6468699512002</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.02914931502728</v>
+        <v>39.99030148053193</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.02914931502728</v>
+        <v>8.949560622652267</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.02914931502728</v>
+        <v>27.92184864304376</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.02914931502728</v>
+        <v>35.72820153910119</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.02914931502728</v>
+        <v>16.68238025864754</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.02914931502728</v>
+        <v>39.0314581964134</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.02914931502728</v>
+        <v>47.84743398726552</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.02914931502728</v>
+        <v>38.91919954087042</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.02914931502728</v>
+        <v>48.85940020415832</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.02914931502728</v>
+        <v>55.48915002434195</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.02914931502728</v>
+        <v>17.50302402639558</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.02914931502728</v>
+        <v>40.2217725559881</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.02914931502728</v>
+        <v>50.21914429626749</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.02914931502728</v>
+        <v>7.206435978284855</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.02914931502728</v>
+        <v>26.30844330705908</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.02914931502728</v>
+        <v>34.64503541624028</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.02914931502728</v>
+        <v>3.630897519969732</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.02914931502728</v>
+        <v>22.59654883172403</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.02914931502728</v>
+        <v>30.39507682848513</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.02914931502728</v>
+        <v>11.35612739247427</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.02914931502728</v>
+        <v>33.69705820042715</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.02914931502728</v>
+        <v>42.50588944239645</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.02914931502728</v>
+        <v>33.57592811091583</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.02914931502728</v>
+        <v>43.50802572168097</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.02914931502728</v>
+        <v>50.13340277800422</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.02914931502728</v>
+        <v>12.16563237032916</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.02914931502728</v>
+        <v>34.87139609983616</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.02914931502728</v>
+        <v>44.86362864608101</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.02914931502728</v>
+        <v>11.54089740101461</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.02914931502728</v>
+        <v>30.65055542418578</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.02914931502728</v>
+        <v>38.99048969292984</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.02914931502728</v>
+        <v>7.948676585512327</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.02914931502728</v>
+        <v>26.92016102613094</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.02914931502728</v>
+        <v>34.72336276592149</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.02914931502728</v>
+        <v>15.68065284911689</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.02914931502728</v>
+        <v>38.02919923387891</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.02914931502728</v>
+        <v>46.84166097064998</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.02914931502728</v>
+        <v>37.91059975634131</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.02914931502728</v>
+        <v>47.8501124754472</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.02914931502728</v>
+        <v>54.47754114022406</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.02914931502728</v>
+        <v>16.49723656071832</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.02914931502728</v>
+        <v>39.21600363244148</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.02914931502728</v>
+        <v>49.20963523112836</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.02914931502728</v>
+        <v>19.58972620891894</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.02914931502728</v>
+        <v>38.70222124910437</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.02914931502728</v>
+        <v>47.04420847496557</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.02914931502728</v>
+        <v>16.0053695546584</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.02914931502728</v>
+        <v>34.98069078849655</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.02914931502728</v>
+        <v>42.78538518253903</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.02914931502728</v>
+        <v>23.73945707388669</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.02914931502728</v>
+        <v>46.09096568313636</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.02914931502728</v>
+        <v>54.90553891666447</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.02914931502728</v>
+        <v>45.97861874296485</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.02914931502728</v>
+        <v>55.918982856467</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.02914931502728</v>
+        <v>62.54769393124788</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.02914931502728</v>
+        <v>24.55851616333565</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.02914931502728</v>
+        <v>47.2801890977528</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.02914931502728</v>
+        <v>57.27590750298965</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.02914931502728</v>
+        <v>7.09320204424672</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.02914931502728</v>
+        <v>26.19495030138684</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.02914931502728</v>
+        <v>34.531213823253</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.02914931502728</v>
+        <v>3.516737617029218</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.02914931502728</v>
+        <v>22.4822038125891</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.02914931502728</v>
+        <v>30.28031646299031</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.02914931502728</v>
+        <v>11.24209513698089</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.02914931502728</v>
+        <v>33.58278467959111</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.02914931502728</v>
+        <v>42.39131078637935</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.02914931502728</v>
+        <v>33.46147526187703</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.02914931502728</v>
+        <v>43.39351724518237</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.02914931502728</v>
+        <v>50.01864685001011</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.02914931502728</v>
+        <v>12.05147581864163</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.02914931502728</v>
+        <v>34.75686104370938</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.02914931502728</v>
+        <v>44.74875355014025</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.02914931502728</v>
+        <v>11.43444568292115</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.02914931502728</v>
+        <v>30.54384485829486</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.02914931502728</v>
+        <v>38.88345042744176</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.02914931502728</v>
+        <v>7.841299344104652</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.02914931502728</v>
+        <v>26.8125989802544</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.02914931502728</v>
+        <v>34.61538521257593</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.02914931502728</v>
+        <v>15.57340357169972</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.02914931502728</v>
+        <v>37.92170891297032</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.02914931502728</v>
+        <v>46.73386541065442</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.02914931502728</v>
+        <v>37.80292975350689</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.02914931502728</v>
+        <v>47.74238687901801</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.02914931502728</v>
+        <v>54.36956806981324</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.02914931502728</v>
+        <v>16.38986262353468</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.02914931502728</v>
+        <v>39.10825134557287</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.02914931502728</v>
+        <v>49.10154285591797</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.02914931502728</v>
+        <v>19.48187914985114</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.02914931502728</v>
+        <v>38.59411532121455</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.02914931502728</v>
+        <v>46.93577390838313</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.02914931502728</v>
+        <v>15.89659683846345</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.02914931502728</v>
+        <v>34.87173323121034</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.02914931502728</v>
+        <v>42.67601219743052</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.02914931502728</v>
+        <v>23.63081221893379</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.02914931502728</v>
+        <v>45.98207975991751</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.02914931502728</v>
+        <v>54.79634781245728</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.02914931502728</v>
+        <v>45.86955320789822</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.02914931502728</v>
+        <v>55.80986178143156</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.02914931502728</v>
+        <v>62.43832539534368</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.02914931502728</v>
+        <v>24.44974668713497</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.02914931502728</v>
+        <v>47.17104130844031</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.02914931502728</v>
+        <v>57.16641966771046</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.02914931502728</v>
+        <v>-1.32887367674515</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.02914931502728</v>
+        <v>17.76987673066663</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.02914931502728</v>
+        <v>26.10733807115004</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.02914931502728</v>
+        <v>-4.907768388450666</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.02914931502728</v>
+        <v>14.05418022766049</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.02914931502728</v>
+        <v>21.85374312377327</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.02914931502728</v>
+        <v>2.816035976823979</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.02914931502728</v>
+        <v>25.15385451382305</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.02914931502728</v>
+        <v>33.9635192927674</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.02914931502728</v>
+        <v>25.03272011901573</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.02914931502728</v>
+        <v>34.96439704330068</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.02914931502728</v>
+        <v>41.59047327151417</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.02914931502728</v>
+        <v>3.627386157025295</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.02914931502728</v>
+        <v>26.32939254568158</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.02914931502728</v>
+        <v>36.3227064974101</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.02914931502728</v>
+        <v>3.011030215604261</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.02914931502728</v>
+        <v>22.11743169132081</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.02914931502728</v>
+        <v>30.45823569329469</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.02914931502728</v>
+        <v>-0.5845468122401947</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.02914931502728</v>
+        <v>18.38323532033622</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.02914931502728</v>
+        <v>26.18747256312691</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.02914931502728</v>
+        <v>29.49143829762773</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.02914931502728</v>
+        <v>38.30473408442369</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.02914931502728</v>
+        <v>29.37283437602299</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.02914931502728</v>
+        <v>39.31192675922115</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.02914931502728</v>
+        <v>45.9400549161311</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.02914931502728</v>
+        <v>7.964432259735315</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.02914931502728</v>
+        <v>30.67944269328178</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.02914931502728</v>
+        <v>40.67415578273769</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.02914931502728</v>
+        <v>11.05871497562647</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.02914931502728</v>
+        <v>30.16795346895936</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.02914931502728</v>
+        <v>38.51081037933035</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.02914931502728</v>
+        <v>7.471002043671444</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.02914931502728</v>
+        <v>26.44262095964485</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.02914931502728</v>
+        <v>34.24835087165253</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.02914931502728</v>
+        <v>15.20366389876791</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.02914931502728</v>
+        <v>37.55206061053595</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.02914931502728</v>
+        <v>46.36746783121522</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.02914931502728</v>
+        <v>37.43970946222454</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.02914931502728</v>
+        <v>47.37965320435855</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.02914931502728</v>
+        <v>54.00906376062211</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.02914931502728</v>
+        <v>16.02456809508875</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.02914931502728</v>
+        <v>38.74248400668218</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.02914931502728</v>
+        <v>48.73928405895698</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.02914931502728</v>
+        <v>8.090823064133371</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.02914931502728</v>
+        <v>27.1913677473848</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.02914931502728</v>
+        <v>35.52886246442849</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.02914931502728</v>
+        <v>4.513289644777966</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.02914931502728</v>
+        <v>23.47723874666498</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.02914931502728</v>
+        <v>31.2767811889786</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.02914931502728</v>
+        <v>12.23802757531463</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.02914931502728</v>
+        <v>34.57766023993862</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.02914931502728</v>
+        <v>43.38738634494963</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.02914931502728</v>
+        <v>34.45592462284698</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.02914931502728</v>
+        <v>44.38837626466297</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.02914931502728</v>
+        <v>51.01440116401615</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.02914931502728</v>
+        <v>13.04863450552137</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.02914931502728</v>
+        <v>35.75233564259135</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.02914931502728</v>
+        <v>45.74575719664189</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.02914931502728</v>
+        <v>12.43477690707949</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.02914931502728</v>
+        <v>31.54297269812845</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.02914931502728</v>
+        <v>39.88380985198468</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.02914931502728</v>
+        <v>8.840561051833003</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.02914931502728</v>
+        <v>27.81034374761294</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.02914931502728</v>
+        <v>35.61456029253146</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.02914931502728</v>
+        <v>38.91929423229841</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.02914931502728</v>
+        <v>47.73265112109927</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.02914931502728</v>
+        <v>38.80008895269965</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.02914931502728</v>
+        <v>48.73995608166275</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.02914931502728</v>
+        <v>55.36803283622034</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.02914931502728</v>
+        <v>17.3897309047344</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.02914931502728</v>
+        <v>40.10643614124855</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.02914931502728</v>
+        <v>50.10125667770571</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.02914931502728</v>
+        <v>20.4790889265604</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.02914931502728</v>
+        <v>39.59012163022773</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.02914931502728</v>
+        <v>47.93301181413212</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.02914931502728</v>
+        <v>16.89273724709927</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.02914931502728</v>
+        <v>35.86635659582329</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.02914931502728</v>
+        <v>43.6720659153399</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.02914931502728</v>
+        <v>24.62633276167413</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.02914931502728</v>
+        <v>46.9765435223775</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.02914931502728</v>
+        <v>55.79201197764532</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.02914931502728</v>
+        <v>46.86359124069294</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.02914931502728</v>
+        <v>56.80430979298048</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.02914931502728</v>
+        <v>63.43366899693764</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.02914931502728</v>
+        <v>25.44649401579376</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.02914931502728</v>
+        <v>48.16610470223488</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.02914931502728</v>
+        <v>58.1630123253989</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.02914931502728</v>
+        <v>10.99408393735474</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.02914931502728</v>
+        <v>30.09537853326379</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.02914931502728</v>
+        <v>38.43106478689528</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.02914931502728</v>
+        <v>7.419616562197927</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.02914931502728</v>
+        <v>26.38478958517829</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.02914931502728</v>
+        <v>34.1823016165613</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.02914931502728</v>
+        <v>15.14443271367135</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.02914931502728</v>
+        <v>37.48439379668038</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.02914931502728</v>
+        <v>46.29230173237819</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.02914931502728</v>
+        <v>37.36219388632766</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.02914931502728</v>
+        <v>47.29425120126588</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.02914931502728</v>
+        <v>53.91889316061612</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.02914931502728</v>
+        <v>15.95354249383957</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.02914931502728</v>
+        <v>38.65787778107644</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.02914931502728</v>
+        <v>48.64928559671093</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.02914931502728</v>
+        <v>15.34191317615797</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.02914931502728</v>
+        <v>34.45085824996183</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.02914931502728</v>
+        <v>42.78988616040398</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.02914931502728</v>
+        <v>11.75076509457677</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.02914931502728</v>
+        <v>30.72177122970619</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.02914931502728</v>
+        <v>38.52395639016665</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.02914931502728</v>
+        <v>19.48232765654212</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.02914931502728</v>
+        <v>41.82990408937702</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.02914931502728</v>
+        <v>50.64144199993076</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.02914931502728</v>
+        <v>41.71023378781719</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.02914931502728</v>
+        <v>51.64970580497346</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.02914931502728</v>
+        <v>58.27639913632881</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.02914931502728</v>
+        <v>20.29851494154526</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.02914931502728</v>
+        <v>43.01585306653079</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.02914931502728</v>
+        <v>53.00865954955135</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.02914931502728</v>
+        <v>23.38479552307332</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.02914931502728</v>
+        <v>19.80151054145416</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.02914931502728</v>
+        <v>38.77635286132876</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.02914931502728</v>
+        <v>46.58003052646758</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.02914931502728</v>
+        <v>27.53518394866604</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.02914931502728</v>
+        <v>49.88572210747783</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.02914931502728</v>
+        <v>58.69937133253019</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.02914931502728</v>
+        <v>49.77230421934895</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.02914931502728</v>
+        <v>59.71262746840172</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.02914931502728</v>
+        <v>66.34060309094674</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.02914931502728</v>
+        <v>28.35384675027479</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.02914931502728</v>
+        <v>51.07409016218448</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.02914931502728</v>
+        <v>61.06898337314307</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.02914931502728</v>
+        <v>-2.066399134817392</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.02914931502728</v>
+        <v>17.0313100500223</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.02914931502728</v>
+        <v>25.36784037541396</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.02914931502728</v>
+        <v>-5.644072948032989</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.02914931502728</v>
+        <v>13.31706540577637</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.02914931502728</v>
+        <v>21.11564453060556</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.02914931502728</v>
+        <v>2.079225625787227</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.02914931502728</v>
+        <v>24.41563535987974</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.02914931502728</v>
+        <v>33.22431886220228</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.02914931502728</v>
+        <v>24.29526652361404</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.02914931502728</v>
+        <v>34.22564802443311</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.02914931502728</v>
+        <v>40.85088783478945</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.02914931502728</v>
+        <v>2.88942520426566</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.02914931502728</v>
+        <v>25.59049294763737</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.02914931502728</v>
+        <v>35.58246776754562</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.02914931502728</v>
+        <v>2.280866666273607</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.02914931502728</v>
+        <v>21.38622647256649</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.02914931502728</v>
+        <v>29.72609910477287</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.02914931502728</v>
+        <v>-1.313486862805338</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.02914931502728</v>
+        <v>17.65348472753079</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.02914931502728</v>
+        <v>25.45673767970744</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.02914931502728</v>
+        <v>6.416557810143797</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.02914931502728</v>
+        <v>28.76058304624065</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.02914931502728</v>
+        <v>37.57289717379241</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.02914931502728</v>
+        <v>28.64274400294051</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.02914931502728</v>
+        <v>38.58054033578425</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.02914931502728</v>
+        <v>45.20783178819114</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.02914931502728</v>
+        <v>7.233834551694496</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.02914931502728</v>
+        <v>29.94790548369793</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.02914931502728</v>
+        <v>39.94127934006714</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.02914931502728</v>
+        <v>10.3273413318068</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.02914931502728</v>
+        <v>29.43553798359154</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.02914931502728</v>
+        <v>37.77746331184245</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.02914931502728</v>
+        <v>6.74085094152532</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.02914931502728</v>
+        <v>25.71165912012306</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.02914931502728</v>
+        <v>33.51640454122402</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.02914931502728</v>
+        <v>14.47300673141707</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.02914931502728</v>
+        <v>36.81999401037332</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.02914931502728</v>
+        <v>45.63441934611923</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.02914931502728</v>
+        <v>36.70840707771505</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.02914931502728</v>
+        <v>46.64705470325715</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.02914931502728</v>
+        <v>53.27562846387299</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.02914931502728</v>
+        <v>15.29275882270839</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.02914931502728</v>
+        <v>38.00973528541682</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.02914931502728</v>
+        <v>48.00519580952268</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.02914931502728</v>
+        <v>-6.712021583455556</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.02914931502728</v>
+        <v>12.38747784871704</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.02914931502728</v>
+        <v>20.72506719826596</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.02914931502728</v>
+        <v>-10.28993293522284</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.02914931502728</v>
+        <v>8.672875964196702</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.02914931502728</v>
+        <v>16.4724990241191</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.02914931502728</v>
+        <v>-2.566229898792802</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.02914931502728</v>
+        <v>19.77232201041012</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.02914931502728</v>
+        <v>28.58214084360555</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.02914931502728</v>
+        <v>19.65152206589063</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.02914931502728</v>
+        <v>29.58368173714281</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.02914931502728</v>
+        <v>36.20978688175104</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.02914931502728</v>
+        <v>-1.755046239157526</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.02914931502728</v>
+        <v>20.94776152239332</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.02914931502728</v>
+        <v>30.94118482697446</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.02914931502728</v>
+        <v>-2.371785211633313</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.02914931502728</v>
+        <v>16.73536522712255</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.02914931502728</v>
+        <v>25.07629709854247</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.02914931502728</v>
+        <v>-5.966378894332696</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.02914931502728</v>
+        <v>13.00226347336128</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.02914931502728</v>
+        <v>20.80656070629028</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.02914931502728</v>
+        <v>1.764070575945436</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.02914931502728</v>
+        <v>24.1102383482313</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.02914931502728</v>
+        <v>32.92368805111848</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.02914931502728</v>
+        <v>23.99196890885402</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.02914931502728</v>
+        <v>33.93154406608723</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.02914931502728</v>
+        <v>40.55970110214345</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.02914931502728</v>
+        <v>2.582332667773027</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.02914931502728</v>
+        <v>25.29814441673672</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.02914931502728</v>
+        <v>35.29296680025688</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.02914931502728</v>
+        <v>5.674056351825367</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.02914931502728</v>
+        <v>24.78404381430608</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.02914931502728</v>
+        <v>33.12702871595503</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.02914931502728</v>
+        <v>2.08732698588393</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.02914931502728</v>
+        <v>21.05980612337045</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.02914931502728</v>
+        <v>28.86559614772206</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.02914931502728</v>
+        <v>9.819887466180273</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.02914931502728</v>
+        <v>32.16901748334978</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.02914931502728</v>
+        <v>40.98457875161286</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.02914931502728</v>
+        <v>32.05700091276789</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.02914931502728</v>
+        <v>41.99742751375346</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.02914931502728</v>
+        <v>48.62686700767667</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.02914931502728</v>
+        <v>10.64062539757868</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.02914931502728</v>
+        <v>33.35934272403485</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.02914931502728</v>
+        <v>43.3562521645846</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.02914931502728</v>
+        <v>10.21795411164727</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.02914931502728</v>
+        <v>29.32010736104406</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.02914931502728</v>
+        <v>37.65655054284618</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.02914931502728</v>
+        <v>6.644134894267392</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.02914931502728</v>
+        <v>25.61025076389957</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.02914931502728</v>
+        <v>33.40852838398565</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.02914931502728</v>
+        <v>14.36929770483802</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.02914931502728</v>
+        <v>36.71026792598811</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.02914931502728</v>
+        <v>45.51891543204751</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.02914931502728</v>
+        <v>36.58879791151629</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.02914931502728</v>
+        <v>46.52095020151002</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.02914931502728</v>
+        <v>53.14596034466787</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.02914931502728</v>
+        <v>15.17898720205961</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.02914931502728</v>
+        <v>37.88483786228973</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.02914931502728</v>
+        <v>47.87705374441488</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.02914931502728</v>
+        <v>14.55469478085196</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.02914931502728</v>
+        <v>33.66449856408157</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.02914931502728</v>
+        <v>42.00428347019296</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.02914931502728</v>
+        <v>10.96419401135405</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.02914931502728</v>
+        <v>29.93614291122141</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.02914931502728</v>
+        <v>37.73909376044277</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.02914931502728</v>
+        <v>18.69610290555796</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.02914931502728</v>
+        <v>41.04468853726031</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.02914931502728</v>
+        <v>49.85696610450522</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.02914931502728</v>
+        <v>40.92574879552957</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.02914931502728</v>
+        <v>50.86531600314937</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.02914931502728</v>
+        <v>57.49237754803234</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.02914931502728</v>
+        <v>19.51287075602898</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.02914931502728</v>
+        <v>42.23172450538438</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.02914931502728</v>
+        <v>52.22533890277158</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.02914931502728</v>
+        <v>22.60072775256311</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.02914931502728</v>
+        <v>41.7133683443068</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.02914931502728</v>
+        <v>50.05520617255765</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.02914931502728</v>
+        <v>19.01809079396197</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.02914931502728</v>
+        <v>37.99387626848774</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.02914931502728</v>
+        <v>45.79831973129775</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.02914931502728</v>
+        <v>26.75211068642274</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.02914931502728</v>
+        <v>49.10365831326966</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.02914931502728</v>
+        <v>57.91804734712913</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.02914931502728</v>
+        <v>48.99097104882289</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.02914931502728</v>
+        <v>58.93138960844284</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.02914931502728</v>
+        <v>65.55973355300002</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.02914931502728</v>
+        <v>27.57135388830035</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.02914931502728</v>
+        <v>50.29311328278619</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.02914931502728</v>
+        <v>60.28881451441704</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.02914931502728</v>
+        <v>-9.164071575510992</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.02914931502728</v>
+        <v>9.932580962782605</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.02914931502728</v>
+        <v>18.26932079067536</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.02914931502728</v>
+        <v>-12.74266818264663</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.02914931502728</v>
+        <v>6.217105115342644</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.02914931502728</v>
+        <v>14.01596393566104</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.02914931502728</v>
+        <v>-5.019999345959594</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.02914931502728</v>
+        <v>17.3153229740666</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.02914931502728</v>
+        <v>26.12425847297892</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.02914931502728</v>
+        <v>17.1951130444345</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.02914931502728</v>
+        <v>27.12507968816272</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.02914931502728</v>
+        <v>33.75069765460536</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.02914931502728</v>
+        <v>-4.209702439860497</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.02914931502728</v>
+        <v>18.49011447554689</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.02914931502728</v>
+        <v>28.48207163896451</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.02914931502728</v>
+        <v>-4.824949534769292</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.02914931502728</v>
+        <v>14.27935322489624</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.02914931502728</v>
+        <v>22.61943562246587</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.02914931502728</v>
+        <v>-8.420226300256093</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.02914931502728</v>
+        <v>10.54537985547246</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.02914931502728</v>
+        <v>18.34891276085933</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.02914931502728</v>
+        <v>-0.6908115558688799</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.02914931502728</v>
+        <v>21.65212585144719</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.02914931502728</v>
+        <v>30.46469223849307</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.02914931502728</v>
+        <v>21.53444615749232</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.02914931502728</v>
+        <v>31.47182735755929</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.02914931502728</v>
+        <v>38.09949718755594</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.02914931502728</v>
+        <v>0.126562928262171</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.02914931502728</v>
+        <v>22.83938242334785</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.02914931502728</v>
+        <v>32.83273905981368</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.02914931502728</v>
+        <v>3.224316272911562</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.02914931502728</v>
+        <v>22.3314559028412</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.02914931502728</v>
+        <v>30.67359106693915</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.02914931502728</v>
+        <v>-0.3630972376769144</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.02914931502728</v>
+        <v>18.60634545183508</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.02914931502728</v>
+        <v>26.41137095339799</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.02914931502728</v>
+        <v>7.368428689757945</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.02914931502728</v>
+        <v>29.71432818828476</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.02914931502728</v>
+        <v>38.5290058403922</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.02914931502728</v>
+        <v>29.60290046151625</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.02914931502728</v>
+        <v>39.54113297998016</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.02914931502728</v>
+        <v>46.17008513211762</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.02914931502728</v>
+        <v>8.188278583259272</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.02914931502728</v>
+        <v>30.9040036623934</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.02914931502728</v>
+        <v>40.89944697641683</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.02914931502728</v>
+        <v>3.550765827059319</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.02914931502728</v>
+        <v>22.65137461151984</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.02914931502728</v>
+        <v>30.98713461324077</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.02914931502728</v>
+        <v>-0.02632272171478078</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.02914931502728</v>
+        <v>18.93789625156127</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.02914931502728</v>
+        <v>26.73551982865719</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.02914931502728</v>
+        <v>7.698488384786867</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.02914931502728</v>
+        <v>30.03791290357334</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.02914931502728</v>
+        <v>38.84593814874519</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.02914931502728</v>
+        <v>29.91656993645917</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.02914931502728</v>
+        <v>39.84827528232178</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.02914931502728</v>
+        <v>46.47310262925022</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.02914931502728</v>
+        <v>8.507981237700971</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.02914931502728</v>
+        <v>31.2117840702033</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.02914931502728</v>
+        <v>41.20308139615237</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.02914931502728</v>
+        <v>7.897887575099059</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.02914931502728</v>
+        <v>27.00614710149581</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.02914931502728</v>
+        <v>35.34524908727305</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.02914931502728</v>
+        <v>4.304117828211258</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.02914931502728</v>
+        <v>23.27417017732672</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.02914931502728</v>
+        <v>31.07646723574932</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.02914931502728</v>
+        <v>12.03567577589105</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.02914931502728</v>
+        <v>34.38271592338846</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.02914931502728</v>
+        <v>43.19437148091073</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.02914931502728</v>
+        <v>34.26390283159891</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.02914931502728</v>
+        <v>44.20302304523877</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.02914931502728</v>
+        <v>50.82990191918874</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.02914931502728</v>
+        <v>12.85224639229024</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.02914931502728</v>
+        <v>35.56905229892767</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.02914931502728</v>
+        <v>45.56174869718281</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.02914931502728</v>
+        <v>15.94459642491007</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.02914931502728</v>
+        <v>35.05569278823022</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.02914931502728</v>
+        <v>43.39684770706118</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.02914931502728</v>
+        <v>12.35869021909265</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.02914931502728</v>
+        <v>31.33257909834596</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.02914931502728</v>
+        <v>39.13636882812706</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.02914931502728</v>
+        <v>20.09235923165751</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.02914931502728</v>
+        <v>42.44236141958403</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.02914931502728</v>
+        <v>51.25612844677381</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.02914931502728</v>
+        <v>42.32980070918428</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.02914931502728</v>
+        <v>52.26977233020683</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.02914931502728</v>
+        <v>58.8979335628966</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.02914931502728</v>
+        <v>20.91140521155706</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.02914931502728</v>
+        <v>43.63111683560182</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.02914931502728</v>
+        <v>53.62589999758337</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.02914931502728</v>
+        <v>-7.489865115500027</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.02914931502728</v>
+        <v>11.60850961447239</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.02914931502728</v>
+        <v>19.94423800253402</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.02914931502728</v>
+        <v>-11.06811737144573</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.02914931502728</v>
+        <v>7.89365586684745</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.02914931502728</v>
+        <v>15.69131634714394</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.02914931502728</v>
+        <v>-3.344501259973857</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.02914931502728</v>
+        <v>18.99269793145232</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.02914931502728</v>
+        <v>27.80065971241812</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.02914931502728</v>
+        <v>18.8719953621826</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.02914931502728</v>
+        <v>28.80245231360983</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.02914931502728</v>
+        <v>35.42745023628824</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.02914931502728</v>
+        <v>-2.534578224771497</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.02914931502728</v>
+        <v>20.16694297697826</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.02914931502728</v>
+        <v>30.15812206699378</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.02914931502728</v>
+        <v>-3.155036306804721</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.02914931502728</v>
+        <v>15.95098892821956</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.02914931502728</v>
+        <v>24.2900595908351</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.02914931502728</v>
+        <v>-6.74996998563039</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.02914931502728</v>
+        <v>12.21763628997349</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.02914931502728</v>
+        <v>20.01997056510653</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.02914931502728</v>
+        <v>0.9803921708500063</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.02914931502728</v>
+        <v>23.32520675515628</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.02914931502728</v>
+        <v>32.13679913984733</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.02914931502728</v>
+        <v>23.20703474106257</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.02914931502728</v>
+        <v>33.1449065369991</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.02914931502728</v>
+        <v>39.77195607658963</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.02914931502728</v>
+        <v>1.797393548699244</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.02914931502728</v>
+        <v>24.51191775280507</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.02914931502728</v>
+        <v>34.50449602369908</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.02914931502728</v>
+        <v>4.897845401071674</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.02914931502728</v>
+        <v>24.00670778463553</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.02914931502728</v>
+        <v>32.34783120426052</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.02914931502728</v>
+        <v>1.310775324373946</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.02914931502728</v>
+        <v>20.28221847938324</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.02914931502728</v>
+        <v>28.0860452641332</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.02914931502728</v>
+        <v>9.043249053764281</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.02914931502728</v>
+        <v>31.39102600252785</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.02914931502728</v>
+        <v>40.20472966862521</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.02914931502728</v>
+        <v>31.27910599679241</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.02914931502728</v>
+        <v>41.21782913167375</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.02914931502728</v>
+        <v>47.84616100788186</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.02914931502728</v>
+        <v>9.862725387343527</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.02914931502728</v>
+        <v>32.58015558052399</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.02914931502728</v>
+        <v>42.57482044632731</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.02914931502728</v>
+        <v>-13.46479381600033</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.02914931502728</v>
+        <v>5.631932129437825</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.02914931502728</v>
+        <v>13.96707617272467</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.02914931502728</v>
+        <v>-17.04360250138221</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.02914931502728</v>
+        <v>1.91646525858847</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.02914931502728</v>
+        <v>9.71352564179109</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.02914931502728</v>
+        <v>-9.320820397594378</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.02914931502728</v>
+        <v>13.01458476308609</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.02914931502728</v>
+        <v>21.82195642047658</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.02914931502728</v>
+        <v>12.89408445458276</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.02914931502728</v>
+        <v>22.82405152359162</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.02914931502728</v>
+        <v>29.4486967164578</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.02914931502728</v>
+        <v>-8.510536591677226</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.02914931502728</v>
+        <v>14.18893221943689</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.02914931502728</v>
+        <v>24.17953225218492</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.02914931502728</v>
+        <v>-9.127536516175486</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.02914931502728</v>
+        <v>9.976839637402701</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.02914931502728</v>
+        <v>18.31532587587118</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.02914931502728</v>
+        <v>-12.72302587604985</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.02914931502728</v>
+        <v>6.242874687105324</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.02914931502728</v>
+        <v>14.04460876614463</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.02914931502728</v>
+        <v>-4.993497863188725</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.02914931502728</v>
+        <v>17.34952240218287</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.02914931502728</v>
+        <v>26.16052456532055</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.02914931502728</v>
+        <v>17.23155248982915</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.02914931502728</v>
+        <v>27.16893407986369</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.02914931502728</v>
+        <v>33.79563083516554</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.02914931502728</v>
+        <v>-4.176136148508466</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.02914931502728</v>
+        <v>18.53633508314966</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.02914931502728</v>
+        <v>28.52833433056083</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.02914931502728</v>
+        <v>-1.074903518711825</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.02914931502728</v>
+        <v>18.03230962993906</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.02914931502728</v>
+        <v>26.37284851041944</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.02914931502728</v>
+        <v>-4.662529721584509</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.02914931502728</v>
+        <v>14.30720753246431</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.02914931502728</v>
+        <v>22.11043402992074</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.02914931502728</v>
+        <v>3.069109824498138</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.02914931502728</v>
+        <v>25.41509229481279</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.02914931502728</v>
+        <v>34.22820562216727</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.02914931502728</v>
+        <v>25.30337415674786</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.02914931502728</v>
+        <v>35.24160702037831</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.02914931502728</v>
+        <v>41.86958600771392</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.02914931502728</v>
+        <v>3.888946475267755</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.02914931502728</v>
+        <v>26.60432346701021</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.02914931502728</v>
+        <v>36.59840920748651</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.02914931502728</v>
+        <v>0.7940526293308601</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.02914931502728</v>
+        <v>19.89335505750752</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.02914931502728</v>
+        <v>28.23098705461451</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.02914931502728</v>
+        <v>-2.784940259475423</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.02914931502728</v>
+        <v>16.17758969607827</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.02914931502728</v>
+        <v>23.97728481597165</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.02914931502728</v>
+        <v>4.939387639704261</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.02914931502728</v>
+        <v>27.27778654405962</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.02914931502728</v>
+        <v>36.08763557319038</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.02914931502728</v>
+        <v>27.15654438165201</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.02914931502728</v>
+        <v>37.08822894817514</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.02914931502728</v>
+        <v>43.7143385632336</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.02914931502728</v>
+        <v>5.750355721370635</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.02914931502728</v>
+        <v>28.45310811602225</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.02914931502728</v>
+        <v>38.44654513622005</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.02914931502728</v>
+        <v>5.130238064979505</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.02914931502728</v>
+        <v>24.23719153165656</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.02914931502728</v>
+        <v>32.57816611495129</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.02914931502728</v>
+        <v>1.534562696417094</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.02914931502728</v>
+        <v>20.50292612037618</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.02914931502728</v>
+        <v>28.30729549774913</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.02914931502728</v>
+        <v>9.265636735566215</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.02914931502728</v>
+        <v>31.61165153812284</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.02914931502728</v>
+        <v>40.42513150209062</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.02914931502728</v>
+        <v>31.49294016168393</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.02914931502728</v>
+        <v>41.4320402034888</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.02914931502728</v>
+        <v>48.06020171692559</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.02914931502728</v>
+        <v>10.08368357659698</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.02914931502728</v>
+        <v>32.7994400757366</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.02914931502728</v>
+        <v>42.79427619150535</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.02914931502728</v>
+        <v>13.17829711844594</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.02914931502728</v>
+        <v>32.28808771170715</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.02914931502728</v>
+        <v>40.63111526351715</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.02914931502728</v>
+        <v>9.590486035926016</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.02914931502728</v>
+        <v>28.56268637645918</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.02914931502728</v>
+        <v>36.36854846805592</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.02914931502728</v>
+        <v>17.32367131592492</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.02914931502728</v>
+        <v>39.67264846829177</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.02914931502728</v>
+        <v>48.48823992511053</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.02914931502728</v>
+        <v>39.560189855216</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.02914931502728</v>
+        <v>49.50014132678156</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.02914931502728</v>
+        <v>56.12958529926085</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.02914931502728</v>
+        <v>18.14419379119171</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.02914931502728</v>
+        <v>40.86285597180451</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.02914931502728</v>
+        <v>50.85977908338647</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.02914931502728</v>
+        <v>4.4625577651159</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.02914931502728</v>
+        <v>23.56258879504015</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.02914931502728</v>
+        <v>31.89897594613013</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.02914931502728</v>
+        <v>0.8858453756851183</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.02914931502728</v>
+        <v>19.84932267914213</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.02914931502728</v>
+        <v>27.64774068288933</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.02914931502728</v>
+        <v>8.610394597162792</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.02914931502728</v>
+        <v>30.94923340656818</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.02914931502728</v>
+        <v>39.75784747109437</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.02914931502728</v>
+        <v>30.82835609496875</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.02914931502728</v>
+        <v>40.75965572102997</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.02914931502728</v>
+        <v>47.38489673672326</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.02914931502728</v>
+        <v>9.419935408963749</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.02914931502728</v>
+        <v>32.12357009931146</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.02914931502728</v>
+        <v>42.11535515549828</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.02914931502728</v>
+        <v>8.795695273615376</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.02914931502728</v>
+        <v>27.90337672763247</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.02914931502728</v>
+        <v>36.24310614150001</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.02914931502728</v>
+        <v>5.202301287870466</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.02914931502728</v>
+        <v>24.17161156343924</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.02914931502728</v>
+        <v>31.9747033607838</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.02914931502728</v>
+        <v>12.93359656579754</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.02914931502728</v>
+        <v>35.28005067693381</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.02914931502728</v>
+        <v>44.09229532723101</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.02914931502728</v>
+        <v>35.16170395808798</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.02914931502728</v>
+        <v>45.10041837893745</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.02914931502728</v>
+        <v>51.72771104080097</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.02914931502728</v>
+        <v>13.75021583143952</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.02914931502728</v>
+        <v>36.46685336953387</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.02914931502728</v>
+        <v>46.46003767144738</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.02914931502728</v>
+        <v>16.8447045618159</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.02914931502728</v>
+        <v>35.95522294064178</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.02914931502728</v>
+        <v>44.29700526128819</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.02914931502728</v>
+        <v>13.25917442551339</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.02914931502728</v>
+        <v>32.23232133274225</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.02914931502728</v>
+        <v>40.03690580249226</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.02914931502728</v>
+        <v>20.9925809340656</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.02914931502728</v>
+        <v>43.34199718583137</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.02914931502728</v>
+        <v>52.15635326804444</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.02914931502728</v>
+        <v>43.22990278305805</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.02914931502728</v>
+        <v>53.16946858292785</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.02914931502728</v>
+        <v>59.79804363428651</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.02914931502728</v>
+        <v>21.81167555952733</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.02914931502728</v>
+        <v>44.53121886340331</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.02914931502728</v>
+        <v>54.5264899006403</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.02914931502728</v>
+        <v>6.828886105034382</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.02914931502728</v>
+        <v>25.93054288990801</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.02914931502728</v>
+        <v>34.26853501904453</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.02914931502728</v>
+        <v>3.252130352029337</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.02914931502728</v>
+        <v>22.2172485795635</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.02914931502728</v>
+        <v>30.01729528903526</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.02914931502728</v>
+        <v>10.97705991217698</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.02914931502728</v>
+        <v>33.31787928273697</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.02914931502728</v>
+        <v>42.12809029360814</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.02914931502728</v>
+        <v>33.196426290687</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.02914931502728</v>
+        <v>43.12920953722791</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.02914931502728</v>
+        <v>49.75548900101263</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.02914931502728</v>
+        <v>11.78777603909294</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.02914931502728</v>
+        <v>34.49313576277088</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.02914931502728</v>
+        <v>44.4871067047002</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.02914931502728</v>
+        <v>11.16756338059566</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.02914931502728</v>
+        <v>30.27687141510661</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.02914931502728</v>
+        <v>38.61820605106745</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.02914931502728</v>
+        <v>7.574124489759708</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.02914931502728</v>
+        <v>26.5450763329916</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.02914931502728</v>
+        <v>34.34979725976747</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.02914931502728</v>
+        <v>15.30580060704211</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.02914931502728</v>
+        <v>37.65423608205153</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.02914931502728</v>
+        <v>46.46807795604833</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.02914931502728</v>
+        <v>37.53531366245922</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.02914931502728</v>
+        <v>47.4755126096285</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.02914931502728</v>
+        <v>54.10384395447103</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.02914931502728</v>
+        <v>16.12359546690653</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.02914931502728</v>
+        <v>38.84195964470349</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.02914931502728</v>
+        <v>48.83732953184735</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.02914931502728</v>
+        <v>19.21350602362146</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.02914931502728</v>
+        <v>38.32565111851865</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.02914931502728</v>
+        <v>46.66903881369286</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.02914931502728</v>
+        <v>15.62793179419772</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.02914931502728</v>
+        <v>34.60272050837933</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.02914931502728</v>
+        <v>42.40893420214492</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.02914931502728</v>
+        <v>23.36171897129374</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.02914931502728</v>
+        <v>45.71311672735636</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.02914931502728</v>
+        <v>54.52907019820249</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.02914931502728</v>
+        <v>45.60044742031722</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.02914931502728</v>
+        <v>55.54149779760509</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.02914931502728</v>
+        <v>62.17111164032464</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.02914931502728</v>
+        <v>24.18198974243377</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.02914931502728</v>
+        <v>46.90325953478909</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.02914931502728</v>
+        <v>56.90071651337009</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.02914931502728</v>
+        <v>6.564973865080571</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.02914931502728</v>
+        <v>25.66448153270563</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.02914931502728</v>
+        <v>34.00226326713677</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.02914931502728</v>
+        <v>2.988050262099261</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.02914931502728</v>
+        <v>21.95086552300792</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.02914931502728</v>
+        <v>29.75076562797109</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.02914931502728</v>
+        <v>10.71185393379586</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.02914931502728</v>
+        <v>33.0504357632915</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.02914931502728</v>
+        <v>41.86042322010861</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.02914931502728</v>
+        <v>32.9288057767882</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.02914931502728</v>
+        <v>42.86076781448368</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.02914931502728</v>
+        <v>49.48696521731553</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.02914931502728</v>
+        <v>11.52243820838465</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.02914931502728</v>
+        <v>34.22526506729322</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.02914931502728</v>
+        <v>44.21900955562286</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.02914931502728</v>
+        <v>10.90423158174896</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.02914931502728</v>
+        <v>30.01139022416818</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.02914931502728</v>
+        <v>38.3525144698274</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.02914931502728</v>
+        <v>7.310625826119587</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.02914931502728</v>
+        <v>26.27927452151836</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.02914931502728</v>
+        <v>34.08384881452027</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.02914931502728</v>
+        <v>15.04117561622435</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.02914931502728</v>
+        <v>37.38737327529363</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.02914931502728</v>
+        <v>46.20099158920836</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.02914931502728</v>
+        <v>37.26827382525438</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.02914931502728</v>
+        <v>47.20765124357071</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.02914931502728</v>
+        <v>53.83590054374044</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.02914931502728</v>
+        <v>15.85883834356185</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.02914931502728</v>
+        <v>38.57466919053878</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.02914931502728</v>
+        <v>48.56981264734226</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.02914931502728</v>
+        <v>18.94973076511679</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.02914931502728</v>
+        <v>38.05972635860907</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.02914931502728</v>
+        <v>46.40290358076119</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.02914931502728</v>
+        <v>15.36398934365378</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.02914931502728</v>
+        <v>34.33647473628584</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.02914931502728</v>
+        <v>42.1425417551276</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.02914931502728</v>
+        <v>23.09665009598463</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.02914931502728</v>
+        <v>45.44580992943169</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.02914931502728</v>
+        <v>54.26153975116007</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.02914931502728</v>
+        <v>45.33296337058734</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.02914931502728</v>
+        <v>55.27319222315806</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.02914931502728</v>
+        <v>61.90272396358047</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.02914931502728</v>
+        <v>23.9167887007551</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.02914931502728</v>
+        <v>46.63552498555818</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.02914931502728</v>
+        <v>56.63275549341473</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.02914931502728</v>
+        <v>2.507512112574442</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.02914931502728</v>
+        <v>21.60879380864743</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.02914931502728</v>
+        <v>29.94606596229847</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.02914931502728</v>
+        <v>-1.069610900381452</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.02914931502728</v>
+        <v>17.89503454448778</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.02914931502728</v>
+        <v>25.69431891740477</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.02914931502728</v>
+        <v>6.655174862605701</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.02914931502728</v>
+        <v>28.9954931550417</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.02914931502728</v>
+        <v>37.80502550138978</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.02914931502728</v>
+        <v>28.87444448097382</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.02914931502728</v>
+        <v>38.80668834143763</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.02914931502728</v>
+        <v>45.43244695308432</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.02914931502728</v>
+        <v>7.46512942061214</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.02914931502728</v>
+        <v>30.17031480603942</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.02914931502728</v>
+        <v>40.16317654686578</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.02914931502728</v>
+        <v>6.843965739251427</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.02914931502728</v>
+        <v>25.95289841076682</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.02914931502728</v>
+        <v>34.29351299469455</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.02914931502728</v>
+        <v>3.250160237369084</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.02914931502728</v>
+        <v>22.22063917140521</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.02914931502728</v>
+        <v>30.02459756936583</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.02914931502728</v>
+        <v>10.98169247780767</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.02914931502728</v>
+        <v>33.32962659744489</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.02914931502728</v>
+        <v>42.14278972640729</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.02914931502728</v>
+        <v>33.21110851008179</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.02914931502728</v>
+        <v>43.15076765858204</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.02914931502728</v>
+        <v>49.77857816481755</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.02914931502728</v>
+        <v>11.79872580404959</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.02914931502728</v>
+        <v>34.51691491797784</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.02914931502728</v>
+        <v>44.51117595369398</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.02914931502728</v>
+        <v>14.89088335939654</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.02914931502728</v>
+        <v>34.00265303162827</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.02914931502728</v>
+        <v>42.34532071041225</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.02914931502728</v>
+        <v>11.30494216970716</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.02914931502728</v>
+        <v>30.27925784360265</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.02914931502728</v>
+        <v>38.08470909773065</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.02914931502728</v>
+        <v>19.03858553632712</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.02914931502728</v>
+        <v>41.38948187844996</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.02914931502728</v>
+        <v>50.20475662735738</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.02914931502728</v>
+        <v>41.27721667759103</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.02914931502728</v>
+        <v>51.21772735832475</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.02914931502728</v>
+        <v>57.8468202900424</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.02914931502728</v>
+        <v>19.85809462122871</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.02914931502728</v>
+        <v>42.57918954427033</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.02914931502728</v>
+        <v>52.57553753178674</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.02914931502728</v>
+        <v>-4.354652184847158</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.02914931502728</v>
+        <v>14.74297305137635</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.02914931502728</v>
+        <v>23.08012779262425</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.02914931502728</v>
+        <v>-7.933737811686559</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.02914931502728</v>
+        <v>11.02718503330324</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.02914931502728</v>
+        <v>18.82646952409915</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.02914931502728</v>
+        <v>-0.21054411277645</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.02914931502728</v>
+        <v>22.12590763142419</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.02914931502728</v>
+        <v>30.93523944940558</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.02914931502728</v>
+        <v>22.00483897207608</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.02914931502728</v>
+        <v>31.93545273072813</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.02914931502728</v>
+        <v>38.56146629711692</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.02914931502728</v>
+        <v>0.5998331461160085</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.02914931502728</v>
+        <v>23.30065871403918</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.02914931502728</v>
+        <v>33.29355205511389</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.02914931502728</v>
+        <v>-0.01321568605179735</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.02914931502728</v>
+        <v>19.09206025046855</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.02914931502728</v>
+        <v>27.43255767358188</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.02914931502728</v>
+        <v>-3.608982223090255</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.02914931502728</v>
+        <v>15.35777387580505</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.02914931502728</v>
+        <v>23.1617326200983</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.02914931502728</v>
+        <v>4.120957476542241</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.02914931502728</v>
+        <v>26.46502477979142</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.02914931502728</v>
+        <v>35.27798761641056</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.02914931502728</v>
+        <v>26.3464864624964</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.02914931502728</v>
+        <v>36.2845153195117</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.02914931502728</v>
+        <v>42.91258083101913</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.02914931502728</v>
+        <v>4.938412654127443</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.02914931502728</v>
+        <v>27.65224179186658</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.02914931502728</v>
+        <v>37.64653440060808</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.02914931502728</v>
+        <v>8.032667648502876</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.02914931502728</v>
+        <v>27.14078052516085</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.02914931502728</v>
+        <v>35.4833307454012</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.02914931502728</v>
+        <v>4.444764550659453</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.02914931502728</v>
+        <v>23.41535732194906</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.02914931502728</v>
+        <v>31.22080868046545</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.02914931502728</v>
+        <v>12.17681532419625</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.02914931502728</v>
+        <v>34.52384478526041</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.02914931502728</v>
+        <v>43.33891892678254</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.02914931502728</v>
+        <v>34.41155870454874</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.02914931502728</v>
+        <v>44.35043892267278</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.02914931502728</v>
+        <v>50.97978678817653</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.02914931502728</v>
+        <v>12.99674599172887</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.02914931502728</v>
+        <v>35.71348058660682</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.02914931502728</v>
+        <v>45.70986007669582</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.02914931502728</v>
+        <v>3.290121845360101</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.02914931502728</v>
+        <v>22.38929241050529</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.02914931502728</v>
+        <v>30.72716120344422</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.02914931502728</v>
+        <v>-0.2872461260610528</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.02914931502728</v>
+        <v>18.67518644884707</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.02914931502728</v>
+        <v>26.47520733898501</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.02914931502728</v>
+        <v>7.436404310038835</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.02914931502728</v>
+        <v>29.77463320645337</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.02914931502728</v>
+        <v>38.58470181160739</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.02914931502728</v>
+        <v>29.65324935404909</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.02914931502728</v>
+        <v>39.5850493146644</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.02914931502728</v>
+        <v>46.21134928766959</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.02914931502728</v>
+        <v>8.247282993483974</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.02914931502728</v>
+        <v>30.94980383537849</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.02914931502728</v>
+        <v>40.94359698141683</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.02914931502728</v>
+        <v>7.628389748881784</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.02914931502728</v>
+        <v>26.73521128419396</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.02914931502728</v>
+        <v>35.07642267321513</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.02914931502728</v>
+        <v>4.034339685673341</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.02914931502728</v>
+        <v>23.00260569158264</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.02914931502728</v>
+        <v>30.80730086222389</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.02914931502728</v>
+        <v>11.76473617568821</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.02914931502728</v>
+        <v>34.11058089417112</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.02914931502728</v>
+        <v>42.92428043927875</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.02914931502728</v>
+        <v>33.9917276200821</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.02914931502728</v>
+        <v>43.93094296639471</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.02914931502728</v>
+        <v>50.5592948882428</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.02914931502728</v>
+        <v>12.58269330282929</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.02914931502728</v>
+        <v>35.29821814204935</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.02914931502728</v>
+        <v>45.29341033338575</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.02914931502728</v>
+        <v>15.67413183261216</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.02914931502728</v>
+        <v>34.78379033131161</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.02914931502728</v>
+        <v>43.12705466956233</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.02914931502728</v>
+        <v>12.08794606226037</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.02914931502728</v>
+        <v>31.06004877826878</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.02914931502728</v>
+        <v>38.86623665424612</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.02914931502728</v>
+        <v>19.82045353342313</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.02914931502728</v>
+        <v>42.1692604409666</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.02914931502728</v>
+        <v>50.98507146311091</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.02914931502728</v>
+        <v>42.05666001575322</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.02914931502728</v>
+        <v>51.99672677543221</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.02914931502728</v>
+        <v>58.62636112494637</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.02914931502728</v>
+        <v>20.64088652107104</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.02914931502728</v>
+        <v>43.35931678520002</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.02914931502728</v>
+        <v>53.35659601882368</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.02914931502728</v>
+        <v>8.345422370101812</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.02914931502728</v>
+        <v>27.4452812632294</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.02914931502728</v>
+        <v>35.78203451482331</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.02914931502728</v>
+        <v>4.76922285762522</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.02914931502728</v>
+        <v>23.73283926752584</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.02914931502728</v>
+        <v>31.53152303541516</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.02914931502728</v>
+        <v>12.49383227847933</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.02914931502728</v>
+        <v>34.83256872599897</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.02914931502728</v>
+        <v>43.64154068442475</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.02914931502728</v>
+        <v>34.71104591973155</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.02914931502728</v>
+        <v>44.64253429688939</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.02914931502728</v>
+        <v>51.26798658780037</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.02914931502728</v>
+        <v>13.30354996812538</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.02914931502728</v>
+        <v>36.00687052633397</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.02914931502728</v>
+        <v>45.99959072348669</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.02914931502728</v>
+        <v>12.68407988367222</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.02914931502728</v>
+        <v>31.79158942393725</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.02914931502728</v>
+        <v>40.13168470001644</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.02914931502728</v>
+        <v>9.091198824762966</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.02914931502728</v>
+        <v>28.06064839383295</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.02914931502728</v>
+        <v>35.86400571474327</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.02914931502728</v>
+        <v>16.82255431795978</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.02914931502728</v>
+        <v>39.16890628183479</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.02914931502728</v>
+        <v>47.9815086143707</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.02914931502728</v>
+        <v>39.04991386385417</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.02914931502728</v>
+        <v>48.9888171947721</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.02914931502728</v>
+        <v>55.6163210672462</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.02914931502728</v>
+        <v>17.63935028011748</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.02914931502728</v>
+        <v>40.35567423281033</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.02914931502728</v>
+        <v>50.34979298533632</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.02914931502728</v>
+        <v>20.72970958300506</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.02914931502728</v>
+        <v>39.84005603460209</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.02914931502728</v>
+        <v>48.18220420820298</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.02914931502728</v>
+        <v>17.1446923914557</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.02914931502728</v>
+        <v>36.11797861970003</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.02914931502728</v>
+        <v>43.92282857806414</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.02914931502728</v>
+        <v>24.87815884030716</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.02914931502728</v>
+        <v>47.22747291630016</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.02914931502728</v>
+        <v>56.04218667716431</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.02914931502728</v>
+        <v>47.1147329913547</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.02914931502728</v>
+        <v>57.05448773801358</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.02914931502728</v>
+        <v>63.68327405837046</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.02914931502728</v>
+        <v>25.69743030668281</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.02914931502728</v>
+        <v>48.41665987925786</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.02914931502728</v>
+        <v>58.41286551975067</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.02914931502728</v>
+        <v>3.068322799869303</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.02914931502728</v>
+        <v>22.16962386364993</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.02914931502728</v>
+        <v>30.50687335876934</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.02914931502728</v>
+        <v>-0.508759130593706</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.02914931502728</v>
+        <v>18.45593888141094</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.02914931502728</v>
+        <v>26.2552008449352</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.02914931502728</v>
+        <v>7.215989067630755</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.02914931502728</v>
+        <v>29.55629857806344</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.02914931502728</v>
+        <v>38.36580734586097</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.02914931502728</v>
+        <v>29.43514992111762</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.02914931502728</v>
+        <v>39.36744923972005</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.02914931502728</v>
+        <v>45.99321063931701</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.02914931502728</v>
+        <v>8.025996222577543</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.02914931502728</v>
+        <v>30.73122033192091</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.02914931502728</v>
+        <v>40.72405430702339</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.02914931502728</v>
+        <v>7.405473480415491</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.02914931502728</v>
+        <v>26.51442550698642</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.02914931502728</v>
+        <v>34.85501739863629</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.02914931502728</v>
+        <v>3.811709178600619</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.02914931502728</v>
+        <v>22.7822406699919</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.02914931502728</v>
+        <v>30.58617661658117</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.02914931502728</v>
+        <v>11.54320384844187</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.02914931502728</v>
+        <v>33.8911291713729</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.02914931502728</v>
+        <v>42.70426868812707</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.02914931502728</v>
+        <v>33.77251101679146</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.02914931502728</v>
+        <v>43.71222562055972</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.02914931502728</v>
+        <v>50.34003890002079</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.02914931502728</v>
+        <v>12.36028970214273</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.02914931502728</v>
+        <v>35.07851754484467</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.02914931502728</v>
+        <v>45.07275076417513</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.02914931502728</v>
+        <v>15.45123118945652</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.02914931502728</v>
+        <v>34.56302014095128</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.02914931502728</v>
+        <v>42.90566514570754</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.02914931502728</v>
+        <v>11.86533110240715</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.02914931502728</v>
+        <v>30.83969924774454</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.02914931502728</v>
+        <v>38.64512807963264</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.02914931502728</v>
+        <v>19.598936775913</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.02914931502728</v>
+        <v>41.94982424427361</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.02914931502728</v>
+        <v>50.76507539646731</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.02914931502728</v>
+        <v>41.83745898637609</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.02914931502728</v>
+        <v>51.77802507968069</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.02914931502728</v>
+        <v>58.40712082087386</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.02914931502728</v>
+        <v>20.41849842408011</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.02914931502728</v>
+        <v>43.13963195056762</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.02914931502728</v>
+        <v>53.13595217862373</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1488344272919555</v>
+        <v>0.1488344273162845</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.24823391759936</v>
+        <v>19.24823391760254</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.58626972710716</v>
+        <v>27.58626972712262</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.429769130257331</v>
+        <v>-3.429769130238231</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.53284841514086</v>
+        <v>15.53284841519395</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.33303412719728</v>
+        <v>23.33303412716783</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.294192950588478</v>
+        <v>4.294192950602689</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.63269254311525</v>
+        <v>26.63269254307376</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.44292574305997</v>
+        <v>35.44292574301734</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.51165054139677</v>
+        <v>26.51165054142247</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.44358419897175</v>
+        <v>36.44358419896436</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.06999955866117</v>
+        <v>43.06999955871233</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.105282540171071</v>
+        <v>5.105282540158679</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.80812115203254</v>
+        <v>27.80812115201469</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.80200670545072</v>
+        <v>37.80200670548994</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.490567195505161</v>
+        <v>4.490567195528808</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.5976178782122</v>
+        <v>23.59761787822618</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.93899644671013</v>
+        <v>31.9389964466949</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.8952812687721341</v>
+        <v>0.895281268818291</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.86373242909577</v>
+        <v>19.86373242911794</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.66859261067271</v>
+        <v>27.6685926106709</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.625989807139387</v>
+        <v>8.625989807144503</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.97210544613746</v>
+        <v>30.97210544615667</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39.78596975363668</v>
+        <v>39.78596975358973</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.85359389755503</v>
+        <v>30.85359389758061</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40.79294315963377</v>
+        <v>40.79294315960284</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>47.42141051831403</v>
+        <v>47.42141051824207</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9.444157682032834</v>
+        <v>9.444157682054435</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.1600006709199</v>
+        <v>32.16000067091979</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42.15528537927584</v>
+        <v>42.15528537933609</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.53698219689967</v>
+        <v>12.53698219693059</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.6468699512002</v>
+        <v>31.64686995119167</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.99030148053193</v>
+        <v>39.99030148057786</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>8.949560622652267</v>
+        <v>8.949560622647265</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.92184864304376</v>
+        <v>27.9218486430142</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.72820153910119</v>
+        <v>35.72820153905936</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.68238025864754</v>
+        <v>16.6823802586971</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.0314581964134</v>
+        <v>39.03145819645819</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>47.84743398726552</v>
+        <v>47.84743398730417</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.91919954087042</v>
+        <v>38.91919954081028</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.85940020415832</v>
+        <v>48.85940020413354</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>55.48915002434195</v>
+        <v>55.48915002429921</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>17.50302402639558</v>
+        <v>17.50302402642627</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.2217725559881</v>
+        <v>40.22177255596434</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50.21914429626749</v>
+        <v>50.21914429628056</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.206435978284855</v>
+        <v>7.206435978313618</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.30844330705908</v>
+        <v>26.30844330706988</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.64503541624028</v>
+        <v>34.64503541623584</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.630897519969732</v>
+        <v>3.630897519968368</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.59654883172403</v>
+        <v>22.59654883172005</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.39507682848513</v>
+        <v>30.39507682845511</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.35612739247427</v>
+        <v>11.35612739249519</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.69705820042715</v>
+        <v>33.69705820044864</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.50588944239645</v>
+        <v>42.50588944237872</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.57592811091583</v>
+        <v>33.57592811092958</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.50802572168097</v>
+        <v>43.5080257216937</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>50.13340277800422</v>
+        <v>50.13340277802753</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.16563237032916</v>
+        <v>12.16563237030313</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.87139609983616</v>
+        <v>34.87139609982616</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.86362864608101</v>
+        <v>44.86362864606248</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.54089740101461</v>
+        <v>11.54089740100359</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.65055542418578</v>
+        <v>30.65055542419828</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.99048969292984</v>
+        <v>38.99048969298521</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.948676585512327</v>
+        <v>7.948676585440932</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.92016102613094</v>
+        <v>26.92016102613435</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.72336276592149</v>
+        <v>34.72336276589739</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.68065284911689</v>
+        <v>15.68065284914611</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.02919923387891</v>
+        <v>38.02919923388983</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.84166097064998</v>
+        <v>46.84166097064669</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.91059975634131</v>
+        <v>37.91059975635393</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47.8501124754472</v>
+        <v>47.85011247548131</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>54.47754114022406</v>
+        <v>54.47754114014187</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.49723656071832</v>
+        <v>16.49723656069103</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.21600363244148</v>
+        <v>39.21600363242636</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>49.20963523112836</v>
+        <v>49.20963523112245</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.58972620891894</v>
+        <v>19.58972620890337</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.70222124910437</v>
+        <v>38.70222124915064</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.04420847496557</v>
+        <v>47.04420847495636</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16.0053695546584</v>
+        <v>16.00536955462111</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.98069078849655</v>
+        <v>34.98069078850564</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.78538518253903</v>
+        <v>42.78538518254108</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.73945707388669</v>
+        <v>23.73945707391784</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>46.09096568313636</v>
+        <v>46.09096568313886</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>54.90553891666447</v>
+        <v>54.9055389166747</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.97861874296485</v>
+        <v>45.97861874295906</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>55.918982856467</v>
+        <v>55.91898285645097</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>62.54769393124788</v>
+        <v>62.54769393124162</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.55851616333565</v>
+        <v>24.55851616334008</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>47.2801890977528</v>
+        <v>47.28018909776269</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>57.27590750298965</v>
+        <v>57.27590750299647</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>7.09320204424672</v>
+        <v>7.093202044234783</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.19495030138684</v>
+        <v>26.19495030140787</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.531213823253</v>
+        <v>34.53121382324356</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.516737617029218</v>
+        <v>3.516737617044793</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.4822038125891</v>
+        <v>22.48220381261059</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.28031646299031</v>
+        <v>30.28031646298338</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.24209513698089</v>
+        <v>11.24209513697339</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.58278467959111</v>
+        <v>33.58278467962033</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>42.39131078637935</v>
+        <v>42.39131078637958</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.46147526187703</v>
+        <v>33.46147526191068</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.39351724518237</v>
+        <v>43.39351724517225</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>50.01864685001011</v>
+        <v>50.01864685000875</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.05147581864163</v>
+        <v>12.05147581863333</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.75686104370938</v>
+        <v>34.75686104373894</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44.74875355014025</v>
+        <v>44.74875355014855</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>11.43444568292115</v>
+        <v>11.43444568297401</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.54384485829486</v>
+        <v>30.5438448583093</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.88345042744176</v>
+        <v>38.88345042745006</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.841299344104652</v>
+        <v>7.841299344114656</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.8125989802544</v>
+        <v>26.81259898027521</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.61538521257593</v>
+        <v>34.61538521257434</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.57340357169972</v>
+        <v>15.57340357173508</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.92170891297032</v>
+        <v>37.92170891297384</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.73386541065442</v>
+        <v>46.73386541064839</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.80292975350689</v>
+        <v>37.80292975353065</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.74238687901801</v>
+        <v>47.74238687901733</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>54.36956806981324</v>
+        <v>54.36956806981711</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.38986262353468</v>
+        <v>16.38986262353877</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>39.10825134557287</v>
+        <v>39.10825134556264</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>49.10154285591797</v>
+        <v>49.10154285591842</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.48187914985114</v>
+        <v>19.48187914981817</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.59411532121455</v>
+        <v>38.59411532122398</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.93577390838313</v>
+        <v>46.93577390832583</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.89659683846345</v>
+        <v>15.89659683845992</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.87173323121034</v>
+        <v>34.87173323122501</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.67601219743052</v>
+        <v>42.67601219743541</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>23.63081221893379</v>
+        <v>23.63081221894425</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.98207975991751</v>
+        <v>45.98207975992104</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>54.79634781245728</v>
+        <v>54.79634781244785</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.86955320789822</v>
+        <v>45.86955320791175</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.80986178143156</v>
+        <v>55.80986178141156</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>62.43832539534368</v>
+        <v>62.43832539536744</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.44974668713497</v>
+        <v>24.44974668714225</v>
       </c>
     </row>
     <row r="135">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.16641966771046</v>
+        <v>57.16641966767385</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-1.32887367674515</v>
+        <v>-1.328873676747651</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>17.76987673066663</v>
+        <v>17.76987673070313</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.10733807115004</v>
+        <v>26.10733807111889</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-4.907768388450666</v>
+        <v>-4.907768388414286</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.05418022766049</v>
+        <v>14.05418022770517</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.85374312377327</v>
+        <v>21.85374312381135</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.816035976823979</v>
+        <v>2.816035976832733</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.15385451382305</v>
+        <v>25.15385451377791</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.9635192927674</v>
+        <v>33.96351929275819</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.03272011901573</v>
+        <v>25.03272011900141</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.96439704330068</v>
+        <v>34.96439704330034</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.59047327151417</v>
+        <v>41.59047327149325</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3.627386157025295</v>
+        <v>3.627386157043599</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.32939254568158</v>
+        <v>26.32939254568249</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.3227064974101</v>
+        <v>36.32270649741089</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3.011030215604261</v>
+        <v>3.011030215572202</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.11743169132081</v>
+        <v>22.11743169130365</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.45823569329469</v>
+        <v>30.45823569328196</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-0.5845468122401947</v>
+        <v>-0.5845468122584982</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.38323532033622</v>
+        <v>18.38323532029063</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.18747256312691</v>
+        <v>26.18747256307655</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.49143829762773</v>
+        <v>29.4914382975776</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>38.30473408442369</v>
+        <v>38.30473408442676</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.37283437602299</v>
+        <v>29.37283437602754</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.31192675922115</v>
+        <v>39.31192675921297</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>45.9400549161311</v>
+        <v>45.94005491613156</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7.964432259735315</v>
+        <v>7.964432259741567</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.67944269328178</v>
+        <v>30.67944269330804</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.67415578273769</v>
+        <v>40.67415578274394</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>11.05871497562647</v>
+        <v>11.05871497564727</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.16795346895936</v>
+        <v>30.16795346893037</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.51081037933035</v>
+        <v>38.51081037934138</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.471002043671444</v>
+        <v>7.471002043619944</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.44262095964485</v>
+        <v>26.44262095960029</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.24835087165253</v>
+        <v>34.24835087166174</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>15.20366389876791</v>
+        <v>15.2036638987803</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.55206061053595</v>
+        <v>37.55206061052276</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.36746783121522</v>
+        <v>46.36746783122034</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.43970946222454</v>
+        <v>37.43970946219703</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.37965320435855</v>
+        <v>47.3796532043955</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>54.00906376062211</v>
+        <v>54.00906376062416</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.02456809508875</v>
+        <v>16.02456809507499</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.74248400668218</v>
+        <v>38.74248400663807</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.73928405895698</v>
+        <v>48.73928405899166</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>8.090823064133371</v>
+        <v>8.090823064152243</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.1913677473848</v>
+        <v>27.19136774742982</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.52886246442849</v>
+        <v>35.52886246443485</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.513289644777966</v>
+        <v>4.513289644731014</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.47723874666498</v>
+        <v>23.47723874666077</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.2767811889786</v>
+        <v>31.27678118895643</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.23802757531463</v>
+        <v>12.23802757534066</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.57766023993862</v>
+        <v>34.57766023989986</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>43.38738634494963</v>
+        <v>43.38738634491973</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.45592462284698</v>
+        <v>34.45592462283811</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>44.38837626466297</v>
+        <v>44.38837626463739</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>51.01440116401615</v>
+        <v>51.01440116399102</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.04863450552137</v>
+        <v>13.04863450553081</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.75233564259135</v>
+        <v>35.75233564257714</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>45.74575719664189</v>
+        <v>45.74575719667929</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>12.43477690707949</v>
+        <v>12.43477690709313</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.54297269812845</v>
+        <v>31.54297269814243</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>39.88380985198468</v>
+        <v>39.88380985201674</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>8.840561051833003</v>
+        <v>8.840561051843689</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.81034374761294</v>
+        <v>27.81034374757509</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.61456029253146</v>
+        <v>35.61456029256694</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.91929423229841</v>
+        <v>38.91929423227124</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>47.73265112109927</v>
+        <v>47.73265112104686</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.80008895269965</v>
+        <v>38.80008895273069</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>48.73995608166275</v>
+        <v>48.73995608164729</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>55.36803283622034</v>
+        <v>55.36803283620999</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>17.3897309047344</v>
+        <v>17.38973090471599</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>40.10643614124855</v>
+        <v>40.10643614128482</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>50.10125667770571</v>
+        <v>50.10125667777869</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.4790889265604</v>
+        <v>20.47908892660952</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>39.59012163022773</v>
+        <v>39.59012163026468</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.93301181413212</v>
+        <v>47.93301181416349</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>16.89273724709927</v>
+        <v>16.89273724707426</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.86635659582329</v>
+        <v>35.86635659577736</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.6720659153399</v>
+        <v>43.67206591534536</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.62633276167413</v>
+        <v>24.62633276167641</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>46.9765435223775</v>
+        <v>46.97654352234771</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>55.79201197764532</v>
+        <v>55.7920119776568</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.86359124069294</v>
+        <v>46.86359124066736</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56.80430979298048</v>
+        <v>56.80430979298298</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>63.43366899693764</v>
+        <v>63.43366899691399</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.44649401579376</v>
+        <v>25.44649401576715</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>48.16610470223488</v>
+        <v>48.16610470222567</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>58.1630123253989</v>
+        <v>58.16301232541288</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10.99408393735474</v>
+        <v>10.9940839373785</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>30.09537853326379</v>
+        <v>30.09537853328653</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>38.43106478689528</v>
+        <v>38.43106478692154</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>7.419616562197927</v>
+        <v>7.419616562201337</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.38478958517829</v>
+        <v>26.3847895851152</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.1823016165613</v>
+        <v>34.18230161652492</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.14443271367135</v>
+        <v>15.1444327135771</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>37.48439379668038</v>
+        <v>37.48439379664048</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>46.29230173237819</v>
+        <v>46.29230173233647</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>37.36219388632766</v>
+        <v>37.36219388635153</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>47.29425120126588</v>
+        <v>47.29425120125451</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.91889316061612</v>
+        <v>53.9188931606101</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>15.95354249383957</v>
+        <v>15.95354249379399</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.65787778107644</v>
+        <v>38.65787778099822</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>48.64928559671093</v>
+        <v>48.64928559667511</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.34191317615797</v>
+        <v>15.34191317618673</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.45085824996183</v>
+        <v>34.45085824994545</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.78988616040398</v>
+        <v>42.78988616044002</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.75076509457677</v>
+        <v>11.75076509453778</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.72177122970619</v>
+        <v>30.72177122966162</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.52395639016665</v>
+        <v>38.52395639014948</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>19.48232765654212</v>
+        <v>19.4823276565403</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>41.82990408937702</v>
+        <v>41.8299040893652</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>50.64144199993076</v>
+        <v>50.64144199995555</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>41.71023378781719</v>
+        <v>41.71023378786346</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>51.64970580497346</v>
+        <v>51.64970580499507</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>58.27639913632881</v>
+        <v>58.27639913630391</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.29851494154526</v>
+        <v>20.29851494157596</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>43.01585306653079</v>
+        <v>43.01585306657763</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>53.00865954955135</v>
+        <v>53.00865954955874</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>23.38479552307332</v>
+        <v>23.3847955230632</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>19.80151054145416</v>
+        <v>19.80151054144779</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.77635286132876</v>
+        <v>38.77635286132751</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.58003052646758</v>
+        <v>46.58003052645849</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>27.53518394866604</v>
+        <v>27.53518394866218</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>49.88572210747783</v>
+        <v>49.88572210745077</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>58.69937133253019</v>
+        <v>58.69937133249688</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.77230421934895</v>
+        <v>49.77230421942035</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>59.71262746840172</v>
+        <v>59.71262746839115</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>66.34060309094674</v>
+        <v>66.3406030909522</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.35384675027479</v>
+        <v>28.35384675029378</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>51.07409016218448</v>
+        <v>51.07409016222654</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>61.06898337314307</v>
+        <v>61.06898337320219</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-2.066399134817392</v>
+        <v>-2.06639913483092</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>17.0313100500223</v>
+        <v>17.03131005001593</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.36784037541396</v>
+        <v>25.36784037543385</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-5.644072948032989</v>
+        <v>-5.644072948038446</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.31706540577637</v>
+        <v>13.31706540574056</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.11564453060556</v>
+        <v>21.11564453059465</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>2.079225625787227</v>
+        <v>2.079225625778474</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.41563535987974</v>
+        <v>24.41563535985075</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.22431886220228</v>
+        <v>33.22431886220603</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.29526652361404</v>
+        <v>24.29526652361427</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.22564802443311</v>
+        <v>34.22564802445449</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>40.85088783478945</v>
+        <v>40.85088783479536</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>2.88942520426566</v>
+        <v>2.889425204363771</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.59049294763737</v>
+        <v>25.59049294763555</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.58246776754562</v>
+        <v>35.58246776756802</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>2.280866666273607</v>
+        <v>2.280866666366943</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.38622647256649</v>
+        <v>21.38622647259013</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.72609910477287</v>
+        <v>29.72609910478435</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-1.313486862805338</v>
+        <v>-1.313486862833418</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.65348472753079</v>
+        <v>17.65348472754443</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.45673767970744</v>
+        <v>25.45673767976485</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.416557810143797</v>
+        <v>6.416557810176538</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.76058304624065</v>
+        <v>28.76058304627612</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.57289717379241</v>
+        <v>37.57289717380537</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.64274400294051</v>
+        <v>28.64274400292858</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>38.58054033578425</v>
+        <v>38.58054033577766</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>45.20783178819114</v>
+        <v>45.20783178813805</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>7.233834551694496</v>
+        <v>7.233834551788856</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.94790548369793</v>
+        <v>29.94790548373568</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.94127934006714</v>
+        <v>39.94127934011989</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>10.3273413318068</v>
+        <v>10.32734133183943</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.43553798359154</v>
+        <v>29.43553798361416</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>37.77746331184245</v>
+        <v>37.77746331187372</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>6.74085094152532</v>
+        <v>6.740850941499854</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.71165912012306</v>
+        <v>25.71165912007815</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.51640454122402</v>
+        <v>33.5164045411931</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>14.47300673141707</v>
+        <v>14.47300673142776</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.81999401037332</v>
+        <v>36.81999401040436</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>45.63441934611923</v>
+        <v>45.63441934612423</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.70840707771505</v>
+        <v>36.70840707777758</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>46.64705470325715</v>
+        <v>46.64705470328478</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>53.27562846387299</v>
+        <v>53.27562846388209</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>15.29275882270839</v>
+        <v>15.29275882272919</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.00973528541682</v>
+        <v>38.00973528548447</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>48.00519580952268</v>
+        <v>48.00519580956008</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-6.712021583455556</v>
+        <v>-6.712021583556623</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.38747784871704</v>
+        <v>12.38747784872795</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>20.72506719826596</v>
+        <v>20.725067198307</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-10.28993293522284</v>
+        <v>-10.28993293527366</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8.672875964196702</v>
+        <v>8.672875964182264</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>16.4724990241191</v>
+        <v>16.47249902410148</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.566229898792802</v>
+        <v>-2.56622989880076</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.77232201041012</v>
+        <v>19.77232201038386</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.58214084360555</v>
+        <v>28.58214084354473</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.65152206589063</v>
+        <v>19.65152206587812</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.58368173714281</v>
+        <v>29.58368173712052</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.20978688175104</v>
+        <v>36.20978688174172</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-1.755046239157526</v>
+        <v>-1.755046239154797</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>20.94776152239332</v>
+        <v>20.94776152236319</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.94118482697446</v>
+        <v>30.9411848269773</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-2.371785211633313</v>
+        <v>-2.371785211600116</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.73536522712255</v>
+        <v>16.73536522717417</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.07629709854247</v>
+        <v>25.07629709853394</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-5.966378894332696</v>
+        <v>-5.966378894254593</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>13.00226347336128</v>
+        <v>13.00226347339857</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>20.80656070629028</v>
+        <v>20.80656070629074</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1.764070575945436</v>
+        <v>1.764070575952029</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.1102383482313</v>
+        <v>24.11023834821289</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>32.92368805111848</v>
+        <v>32.92368805114963</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.99196890885402</v>
+        <v>23.99196890890279</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.93154406608723</v>
+        <v>33.93154406613839</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.55970110214345</v>
+        <v>40.55970110220314</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2.582332667773027</v>
+        <v>2.582332667855223</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.29814441673672</v>
+        <v>25.29814441677878</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.29296680025688</v>
+        <v>35.29296680029996</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.674056351825367</v>
+        <v>5.674056351802516</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.78404381430608</v>
+        <v>24.78404381432336</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.12702871595503</v>
+        <v>33.12702871593923</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>2.08732698588393</v>
+        <v>2.087326985927245</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>21.05980612337045</v>
+        <v>21.05980612336908</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.86559614772206</v>
+        <v>28.86559614768374</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>9.819887466180273</v>
+        <v>9.819887466206534</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.16901748334978</v>
+        <v>32.16901748336205</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.98457875161286</v>
+        <v>40.98457875161934</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.05700091276789</v>
+        <v>32.05700091275641</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>41.99742751375346</v>
+        <v>41.99742751375972</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>48.62686700767667</v>
+        <v>48.62686700774931</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>10.64062539757868</v>
+        <v>10.64062539755697</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>33.35934272403485</v>
+        <v>33.35934272404849</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>43.3562521645846</v>
+        <v>43.35625216465407</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>10.21795411164727</v>
+        <v>10.2179541116417</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.32010736104406</v>
+        <v>29.32010736104497</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.65655054284618</v>
+        <v>37.65655054286357</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>6.644134894267392</v>
+        <v>6.644134894257729</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.61025076389957</v>
+        <v>25.61025076392117</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.40852838398565</v>
+        <v>33.40852838402328</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>14.36929770483802</v>
+        <v>14.36929770485677</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>36.71026792598811</v>
+        <v>36.7102679260213</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.51891543204751</v>
+        <v>45.51891543205353</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.58879791151629</v>
+        <v>36.58879791154006</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>46.52095020151002</v>
+        <v>46.52095020153196</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>53.14596034466787</v>
+        <v>53.1459603446457</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15.17898720205961</v>
+        <v>15.17898720208212</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>37.88483786228973</v>
+        <v>37.88483786228518</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>47.87705374441488</v>
+        <v>47.87705374443557</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>14.55469478085196</v>
+        <v>14.55469478090209</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.66449856408157</v>
+        <v>33.6644985641242</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>42.00428347019296</v>
+        <v>42.00428347019967</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>10.96419401135405</v>
+        <v>10.96419401136849</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.93614291122141</v>
+        <v>29.93614291122993</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.73909376044277</v>
+        <v>37.739093760404</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.69610290555796</v>
+        <v>18.69610290557331</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>41.04468853726031</v>
+        <v>41.04468853723291</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>49.85696610450522</v>
+        <v>49.85696610450226</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>40.92574879552957</v>
+        <v>40.92574879556095</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>50.86531600314937</v>
+        <v>50.86531600318484</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>57.49237754803234</v>
+        <v>57.49237754807633</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.51287075602898</v>
+        <v>19.51287075603319</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.23172450538438</v>
+        <v>42.2317245053804</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>52.22533890277158</v>
+        <v>52.22533890274714</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.60072775256311</v>
+        <v>22.60072775258983</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>41.7133683443068</v>
+        <v>41.71336834427792</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>50.05520617255765</v>
+        <v>50.05520617256731</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>19.01809079396197</v>
+        <v>19.01809079397732</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.99387626848774</v>
+        <v>37.99387626850547</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.79831973129775</v>
+        <v>45.79831973130332</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.75211068642274</v>
+        <v>26.7521106864299</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>49.10365831326966</v>
+        <v>49.10365831324897</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>57.91804734712913</v>
+        <v>57.91804734714812</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>48.99097104882289</v>
+        <v>48.99097104884505</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>58.93138960844284</v>
+        <v>58.93138960842374</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>65.55973355300002</v>
+        <v>65.55973355301536</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.57135388830035</v>
+        <v>27.57135388833957</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>50.29311328278619</v>
+        <v>50.29311328273492</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>60.28881451441704</v>
+        <v>60.28881451439419</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-9.164071575510992</v>
+        <v>-9.164071575511901</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.932580962782605</v>
+        <v>9.932580962786243</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>18.26932079067536</v>
+        <v>18.2693207906956</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-12.74266818264663</v>
+        <v>-12.74266818264435</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>6.217105115342644</v>
+        <v>6.217105115334572</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.01596393566104</v>
+        <v>14.01596393572494</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-5.019999345959594</v>
+        <v>-5.019999345965392</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.3153229740666</v>
+        <v>17.31532297404739</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.12425847297892</v>
+        <v>26.12425847293549</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.1951130444345</v>
+        <v>17.19511304443484</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.12507968816272</v>
+        <v>27.12507968816648</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>33.75069765460536</v>
+        <v>33.75069765461843</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-4.209702439860497</v>
+        <v>-4.209702439816841</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.49011447554689</v>
+        <v>18.49011447555882</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.48207163896451</v>
+        <v>28.48207163900555</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-4.824949534769292</v>
+        <v>-4.824949534770202</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.27935322489624</v>
+        <v>14.27935322489476</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.61943562246587</v>
+        <v>22.61943562246269</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-8.420226300256093</v>
+        <v>-8.420226300198795</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>10.54537985547246</v>
+        <v>10.54537985544199</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.34891276085933</v>
+        <v>18.34891276082329</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-0.6908115558688799</v>
+        <v>-0.6908115558262473</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.65212585144719</v>
+        <v>21.6521258513833</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>30.46469223849307</v>
+        <v>30.46469223850319</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.53444615749232</v>
+        <v>21.53444615753643</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.47182735755929</v>
+        <v>31.47182735759692</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>38.09949718755594</v>
+        <v>38.09949718757731</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.126562928262171</v>
+        <v>0.1265629282835441</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.83938242334785</v>
+        <v>22.83938242332477</v>
       </c>
     </row>
     <row r="432">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>3.224316272911562</v>
+        <v>3.224316272887005</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.3314559028412</v>
+        <v>22.33145590282619</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.67359106693915</v>
+        <v>30.67359106695416</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-0.3630972376769144</v>
+        <v>-0.3630972376278017</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.60634545183508</v>
+        <v>18.60634545182064</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.41137095339799</v>
+        <v>26.41137095340936</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>7.368428689757945</v>
+        <v>7.368428689778636</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.71432818828476</v>
+        <v>29.7143281883017</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.5290058403922</v>
+        <v>38.52900584041335</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.60290046151625</v>
+        <v>29.60290046152978</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>39.54113297998016</v>
+        <v>39.54113297998846</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.17008513211762</v>
+        <v>46.17008513214252</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>8.188278583259272</v>
+        <v>8.188278583238127</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.9040036623934</v>
+        <v>30.90400366238658</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>40.89944697641683</v>
+        <v>40.89944697640023</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>3.550765827059319</v>
+        <v>3.550765827001225</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.65137461151984</v>
+        <v>22.65137461151074</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.98713461324077</v>
+        <v>30.98713461319722</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-0.02632272171478078</v>
+        <v>-0.02632272174479411</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.93789625156127</v>
+        <v>18.93789625152796</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.73551982865719</v>
+        <v>26.73551982865628</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>7.698488384786867</v>
+        <v>7.69848838476754</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.03791290357334</v>
+        <v>30.03791290356981</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>38.84593814874519</v>
+        <v>38.84593814876838</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.91656993645917</v>
+        <v>29.91656993650725</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>39.84827528232178</v>
+        <v>39.84827528230996</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>46.47310262925022</v>
+        <v>46.47310262918917</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>8.507981237700971</v>
+        <v>8.507981237717683</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.2117840702033</v>
+        <v>31.21178407020535</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>41.20308139615237</v>
+        <v>41.20308139617954</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>7.897887575099059</v>
+        <v>7.897887575065294</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.00614710149581</v>
+        <v>27.00614710153094</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.34524908727305</v>
+        <v>35.34524908722769</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.304117828211258</v>
+        <v>4.304117828237519</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.27417017732672</v>
+        <v>23.27417017733604</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.07646723574932</v>
+        <v>31.07646723573101</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>12.03567577589105</v>
+        <v>12.03567577589002</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.38271592338846</v>
+        <v>34.38271592336777</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.19437148091073</v>
+        <v>43.1943714808847</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.26390283159891</v>
+        <v>34.26390283165519</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>44.20302304523877</v>
+        <v>44.20302304527139</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>50.82990191918874</v>
+        <v>50.82990191916237</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>12.85224639229024</v>
+        <v>12.85224639229251</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.56905229892767</v>
+        <v>35.56905229895337</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.56174869718281</v>
+        <v>45.5617486971819</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.94459642491007</v>
+        <v>15.94459642488188</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.05569278823022</v>
+        <v>35.05569278825523</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.39684770706118</v>
+        <v>43.3968477070887</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>12.35869021909265</v>
+        <v>12.35869021913971</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.33257909834596</v>
+        <v>31.33257909842599</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.13636882812706</v>
+        <v>39.13636882813866</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>20.09235923165751</v>
+        <v>20.09235923169559</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.44236141958403</v>
+        <v>42.44236141959813</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>51.25612844677381</v>
+        <v>51.25612844675756</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.32980070918428</v>
+        <v>42.32980070919429</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>52.26977233020683</v>
+        <v>52.26977233023389</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>58.8979335628966</v>
+        <v>58.89793356291604</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>20.91140521155706</v>
+        <v>20.91140521156514</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.63111683560182</v>
+        <v>43.63111683562558</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>53.62589999758337</v>
+        <v>53.62589999760236</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-7.489865115500027</v>
+        <v>-7.489865115517649</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>11.60850961447239</v>
+        <v>11.60850961450798</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.94423800253402</v>
+        <v>19.94423800254914</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-11.06811737144573</v>
+        <v>-11.06811737147369</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>7.89365586684745</v>
+        <v>7.893655866858364</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.69131634714394</v>
+        <v>15.69131634713848</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-3.344501259973857</v>
+        <v>-3.344501260012624</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.99269793145232</v>
+        <v>18.99269793144164</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>27.80065971241812</v>
+        <v>27.80065971237196</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.8719953621826</v>
+        <v>18.87199536221261</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.80245231360983</v>
+        <v>28.80245231364428</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.42745023628824</v>
+        <v>35.42745023632484</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-2.534578224771497</v>
+        <v>-2.534578224787413</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.16694297697826</v>
+        <v>20.16694297698701</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.15812206699378</v>
+        <v>30.15812206702266</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-3.155036306804721</v>
+        <v>-3.155036306823138</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>15.95098892821956</v>
+        <v>15.95098892827128</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.2900595908351</v>
+        <v>24.29005959088853</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-6.74996998563039</v>
+        <v>-6.749969985597193</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.21763628997349</v>
+        <v>12.21763629002158</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>20.01997056510653</v>
+        <v>20.01997056506458</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>0.9803921708500063</v>
+        <v>0.9803921709005969</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.32520675515628</v>
+        <v>23.32520675518368</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>32.13679913984733</v>
+        <v>32.13679913990906</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.20703474106257</v>
+        <v>23.20703474110952</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>33.1449065369991</v>
+        <v>33.14490653700513</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.77195607658963</v>
+        <v>39.7719560765852</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1.797393548699244</v>
+        <v>1.797393548683782</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.51191775280507</v>
+        <v>24.51191775278302</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.50449602369908</v>
+        <v>34.50449602370908</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>4.897845401071674</v>
+        <v>4.897845401076335</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.00670778463553</v>
+        <v>24.00670778462269</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.34783120426052</v>
+        <v>32.34783120427495</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1.310775324373946</v>
+        <v>1.310775324442954</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.28221847938324</v>
+        <v>20.28221847940291</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.0860452641332</v>
+        <v>28.08604526417879</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>9.043249053764281</v>
+        <v>9.043249053824308</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.39102600252785</v>
+        <v>31.39102600256275</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.20472966862521</v>
+        <v>40.20472966862111</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.27910599679241</v>
+        <v>31.27910599678354</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>41.21782913167375</v>
+        <v>41.21782913164829</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>47.84616100788186</v>
+        <v>47.84616100786913</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>9.862725387343527</v>
+        <v>9.862725387368197</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>32.58015558052399</v>
+        <v>32.58015558055116</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.57482044632731</v>
+        <v>42.5748204462965</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-13.46479381600033</v>
+        <v>-13.46479381597031</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>5.631932129437825</v>
+        <v>5.631932129466588</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.96707617272467</v>
+        <v>13.96707617277219</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-17.04360250138221</v>
+        <v>-17.04360250135459</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.91646525858847</v>
+        <v>1.916465258622235</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.71352564179109</v>
+        <v>9.713525641832359</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-9.320820397594378</v>
+        <v>-9.32082039754663</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.01458476308609</v>
+        <v>13.01458476311326</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.82195642047658</v>
+        <v>21.82195642051478</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.89408445458276</v>
+        <v>12.89408445456469</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.82405152359162</v>
+        <v>22.82405152360128</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.4486967164578</v>
+        <v>29.44869671646837</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-8.510536591677226</v>
+        <v>-8.51053659165483</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.18893221943689</v>
+        <v>14.18893221951147</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.17953225218492</v>
+        <v>24.17953225223233</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-9.127536516175486</v>
+        <v>-9.127536516199132</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.976839637402701</v>
+        <v>9.976839637395425</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.31532587587118</v>
+        <v>18.31532587586129</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-12.72302587604985</v>
+        <v>-12.72302587605337</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.242874687105324</v>
+        <v>6.242874687104187</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.04460876614463</v>
+        <v>14.04460876613178</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.993497863188725</v>
+        <v>-4.993497863174742</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.34952240218287</v>
+        <v>17.34952240217445</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.16052456532055</v>
+        <v>26.16052456527008</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.23155248982915</v>
+        <v>17.23155248981028</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.16893407986369</v>
+        <v>27.16893407987756</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.79563083516554</v>
+        <v>33.79563083513871</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-4.176136148508466</v>
+        <v>-4.176136148569743</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.53633508314966</v>
+        <v>18.53633508313079</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.52833433056083</v>
+        <v>28.52833433058971</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1.074903518711825</v>
+        <v>-1.074903518714553</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>18.03230962993906</v>
+        <v>18.03230962997817</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.37284851041944</v>
+        <v>26.37284851036578</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-4.662529721584509</v>
+        <v>-4.662529721558361</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.30720753246431</v>
+        <v>14.3072075324916</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.11043402992074</v>
+        <v>22.11043402997144</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.069109824498138</v>
+        <v>3.069109824524286</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.41509229481279</v>
+        <v>25.41509229474458</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.22820562216727</v>
+        <v>34.22820562211156</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.30337415674786</v>
+        <v>25.30337415673922</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>35.24160702037831</v>
+        <v>35.24160702040798</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>41.86958600771392</v>
+        <v>41.86958600771688</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>3.888946475267755</v>
+        <v>3.888946475224781</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.60432346701021</v>
+        <v>26.60432346703091</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.59840920748651</v>
+        <v>36.59840920747583</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.7940526293308601</v>
+        <v>0.7940526292861811</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.89335505750752</v>
+        <v>19.89335505752571</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.23098705461451</v>
+        <v>28.23098705461826</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-2.784940259475423</v>
+        <v>-2.784940259508051</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.17758969607827</v>
+        <v>16.17758969605746</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.97728481597165</v>
+        <v>23.97728481595949</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.939387639704261</v>
+        <v>4.939387639644348</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.27778654405962</v>
+        <v>27.27778654403336</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>36.08763557319038</v>
+        <v>36.08763557317685</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.15654438165201</v>
+        <v>27.15654438164132</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.08822894817514</v>
+        <v>37.08822894813467</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.7143385632336</v>
+        <v>43.71433856315879</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>5.750355721370635</v>
+        <v>5.750355721315724</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.45310811602225</v>
+        <v>28.4531081159903</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.44654513622005</v>
+        <v>38.4465451362138</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>5.130238064979505</v>
+        <v>5.13023806502191</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.23719153165656</v>
+        <v>24.23719153170545</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.57816611495129</v>
+        <v>32.57816611499005</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1.534562696417094</v>
+        <v>1.534562696462569</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.50292612037618</v>
+        <v>20.50292612042348</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.30729549774913</v>
+        <v>28.30729549777505</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>9.265636735566215</v>
+        <v>9.26563673558918</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.61165153812284</v>
+        <v>31.61165153812352</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>40.42513150209062</v>
+        <v>40.42513150209085</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.49294016168393</v>
+        <v>31.49294016169086</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>41.4320402034888</v>
+        <v>41.43204020350358</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>48.06020171692559</v>
+        <v>48.06020171695435</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>10.08368357659698</v>
+        <v>10.08368357664825</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.7994400757366</v>
+        <v>32.79944007580777</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>42.79427619150535</v>
+        <v>42.79427619157663</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.17829711844594</v>
+        <v>13.17829711843764</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>32.28808771170715</v>
+        <v>32.28808771171897</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>40.63111526351715</v>
+        <v>40.63111526354136</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>9.590486035926016</v>
+        <v>9.590486035943865</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.56268637645918</v>
+        <v>28.56268637653057</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.36854846805592</v>
+        <v>36.36854846806126</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>17.32367131592492</v>
+        <v>17.32367131593845</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>39.67264846829177</v>
+        <v>39.6726484682513</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>48.48823992511053</v>
+        <v>48.48823992508791</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.560189855216</v>
+        <v>39.56018985518268</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>49.50014132678156</v>
+        <v>49.50014132685045</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>56.12958529926085</v>
+        <v>56.12958529929655</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>18.14419379119171</v>
+        <v>18.1441937912091</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.86285597180451</v>
+        <v>40.86285597183998</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>50.85977908338647</v>
+        <v>50.85977908345866</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>4.4625577651159</v>
+        <v>4.462557765086228</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.56258879504015</v>
+        <v>23.56258879502901</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.89897594613013</v>
+        <v>31.8989759461141</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>0.8858453756851183</v>
+        <v>0.8858453755968974</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.84932267914213</v>
+        <v>19.849322679053</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.64774068288933</v>
+        <v>27.64774068284136</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.610394597162792</v>
+        <v>8.610394597190531</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.94923340656818</v>
+        <v>30.94923340658591</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.75784747109437</v>
+        <v>39.75784747110119</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.82835609496875</v>
+        <v>30.82835609494385</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>40.75965572102997</v>
+        <v>40.75965572101599</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>47.38489673672326</v>
+        <v>47.38489673670541</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>9.419935408963749</v>
+        <v>9.419935408888943</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>32.12357009931146</v>
+        <v>32.12357009930578</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.11535515549828</v>
+        <v>42.11535515555512</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>8.795695273615376</v>
+        <v>8.795695273596163</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.90337672763247</v>
+        <v>27.9033767276061</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.24310614150001</v>
+        <v>36.24310614148284</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.202301287870466</v>
+        <v>5.202301287859438</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.17161156343924</v>
+        <v>24.17161156341093</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.9747033607838</v>
+        <v>31.97470336080074</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.93359656579754</v>
+        <v>12.93359656580584</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.28005067693381</v>
+        <v>35.28005067690846</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.09229532723101</v>
+        <v>44.0922953272575</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.16170395808798</v>
+        <v>35.16170395808162</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>45.10041837893745</v>
+        <v>45.10041837891914</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>51.72771104080097</v>
+        <v>51.72771104084281</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>13.75021583143952</v>
+        <v>13.75021583154775</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.46685336953387</v>
+        <v>36.46685336953671</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.46003767144738</v>
+        <v>46.46003767146603</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.8447045618159</v>
+        <v>16.84470456180032</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.95522294064178</v>
+        <v>35.95522294063177</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>44.29700526128819</v>
+        <v>44.29700526129581</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>13.25917442551339</v>
+        <v>13.25917442549963</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.23232133274225</v>
+        <v>32.23232133272133</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.03690580249226</v>
+        <v>40.03690580250783</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>20.9925809340656</v>
+        <v>20.99258093409595</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>43.34199718583137</v>
+        <v>43.3419971858191</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>52.15635326804444</v>
+        <v>52.15635326809321</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.22990278305805</v>
+        <v>43.22990278301519</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>53.16946858292785</v>
+        <v>53.16946858287328</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>59.79804363428651</v>
+        <v>59.79804363428242</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>21.81167555952733</v>
+        <v>21.81167555951368</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.53121886340331</v>
+        <v>44.53121886343048</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>54.5264899006403</v>
+        <v>54.52648990068009</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>6.828886105034382</v>
+        <v>6.828886105059961</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.93054288990801</v>
+        <v>25.93054288989675</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.26853501904453</v>
+        <v>34.26853501899144</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>3.252130352029337</v>
+        <v>3.252130352017627</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>22.2172485795635</v>
+        <v>22.21724857949381</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.01729528903526</v>
+        <v>30.01729528904219</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>10.97705991217698</v>
+        <v>10.97705991224815</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.31787928273697</v>
+        <v>33.31787928267546</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.12809029360814</v>
+        <v>42.12809029358222</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>33.196426290687</v>
+        <v>33.1964262907061</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.12920953722791</v>
+        <v>43.12920953717698</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.75548900101263</v>
+        <v>49.75548900100877</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>11.78777603909294</v>
+        <v>11.7877760391723</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.49313576277088</v>
+        <v>34.49313576279725</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>44.4871067047002</v>
+        <v>44.48710670471111</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.16756338059566</v>
+        <v>11.16756338067081</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.27687141510661</v>
+        <v>30.27687141509103</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.61820605106745</v>
+        <v>38.61820605108484</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>7.574124489759708</v>
+        <v>7.574124489777443</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.5450763329916</v>
+        <v>26.54507633296522</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.34979725976747</v>
+        <v>34.34979725973814</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>15.30580060704211</v>
+        <v>15.3058006070262</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.65423608205153</v>
+        <v>37.65423608206198</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>46.46807795604833</v>
+        <v>46.46807795603287</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.53531366245922</v>
+        <v>37.53531366248241</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>47.4755126096285</v>
+        <v>47.47551260960473</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>54.10384395447103</v>
+        <v>54.10384395446933</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>16.12359546690653</v>
+        <v>16.12359546696986</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>38.84195964470349</v>
+        <v>38.84195964472475</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.83732953184735</v>
+        <v>48.83732953182427</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>19.21350602362146</v>
+        <v>19.21350602367864</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>38.32565111851865</v>
+        <v>38.32565111850148</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.66903881369286</v>
+        <v>46.66903881368661</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>15.62793179419772</v>
+        <v>15.62793179422387</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.60272050837933</v>
+        <v>34.60272050836399</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.40893420214492</v>
+        <v>42.4089342021522</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>23.36171897129374</v>
+        <v>23.36171897134762</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>45.71311672735636</v>
+        <v>45.71311672737603</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>54.52907019820249</v>
+        <v>54.52907019822852</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.60044742031722</v>
+        <v>45.6004474203569</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>55.54149779760509</v>
+        <v>55.54149779764067</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>62.17111164032464</v>
+        <v>62.17111164027746</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>24.18198974243377</v>
+        <v>24.18198974242786</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.90325953478909</v>
+        <v>46.90325953476794</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.90071651337009</v>
+        <v>56.90071651338589</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>6.564973865080571</v>
+        <v>6.564973865048398</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.66448153270563</v>
+        <v>25.66448153269722</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.00226326713677</v>
+        <v>34.0022632671603</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2.988050262099261</v>
+        <v>2.988050262133935</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.95086552300792</v>
+        <v>21.95086552302724</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.75076562797109</v>
+        <v>29.75076562800554</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.71185393379586</v>
+        <v>10.71185393376676</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>33.0504357632915</v>
+        <v>33.05043576324785</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>41.86042322010861</v>
+        <v>41.86042322006291</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.9288057767882</v>
+        <v>32.92880577682128</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.86076781448368</v>
+        <v>42.86076781449971</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>49.48696521731553</v>
+        <v>49.48696521726994</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>11.52243820838465</v>
+        <v>11.52243820838101</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.22526506729322</v>
+        <v>34.22526506735871</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>44.21900955562286</v>
+        <v>44.21900955563764</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>10.90423158174896</v>
+        <v>10.90423158175498</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.01139022416818</v>
+        <v>30.0113902241833</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.3525144698274</v>
+        <v>38.35251446985707</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>7.310625826119587</v>
+        <v>7.310625826155057</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.27927452151836</v>
+        <v>26.27927452153098</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.08384881452027</v>
+        <v>34.08384881449366</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.04117561622435</v>
+        <v>15.04117561626368</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>37.38737327529363</v>
+        <v>37.38737327528692</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>46.20099158920836</v>
+        <v>46.20099158921472</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>37.26827382525438</v>
+        <v>37.26827382528531</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>47.20765124357071</v>
+        <v>47.2076512435939</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>53.83590054374044</v>
+        <v>53.83590054370758</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>15.85883834356185</v>
+        <v>15.85883834358277</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.57466919053878</v>
+        <v>38.57466919059165</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>48.56981264734226</v>
+        <v>48.56981264737341</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>18.94973076511679</v>
+        <v>18.94973076507211</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.05972635860907</v>
+        <v>38.05972635863681</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>46.40290358076119</v>
+        <v>46.40290358077517</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>15.36398934365378</v>
+        <v>15.3639893436473</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.33647473628584</v>
+        <v>34.33647473622865</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.1425417551276</v>
+        <v>42.14254175512635</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>23.09665009598463</v>
+        <v>23.09665009596121</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.44580992943169</v>
+        <v>45.4458099293977</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>54.26153975116007</v>
+        <v>54.26153975115325</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>45.33296337058734</v>
+        <v>45.33296337059177</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>55.27319222315806</v>
+        <v>55.2731922231592</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>61.90272396358047</v>
+        <v>61.90272396358775</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>23.9167887007551</v>
+        <v>23.91678870077636</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>46.63552498555818</v>
+        <v>46.63552498560786</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.63275549341473</v>
+        <v>56.63275549349807</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>2.507512112574442</v>
+        <v>2.507512112542724</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.60879380864743</v>
+        <v>21.60879380863936</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.94606596229847</v>
+        <v>29.94606596231155</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1.069610900381452</v>
+        <v>-1.069610900401461</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>17.89503454448778</v>
+        <v>17.89503454449187</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.69431891740477</v>
+        <v>25.6943189174225</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>6.655174862605701</v>
+        <v>6.655174862589103</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.9954931550417</v>
+        <v>28.99549315499781</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>37.80502550138978</v>
+        <v>37.80502550139319</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.87444448097382</v>
+        <v>28.87444448099951</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>38.80668834143763</v>
+        <v>38.80668834141501</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.43244695308432</v>
+        <v>45.43244695306818</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>7.46512942061214</v>
+        <v>7.465129420611344</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.17031480603942</v>
+        <v>30.17031480605295</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>40.16317654686578</v>
+        <v>40.16317654687568</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>6.843965739251427</v>
+        <v>6.843965739234829</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.95289841076682</v>
+        <v>25.95289841076352</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.29351299469455</v>
+        <v>34.29351299464726</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3.250160237369084</v>
+        <v>3.250160237472539</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.22063917140521</v>
+        <v>22.2206391713869</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.02459756936583</v>
+        <v>30.02459756938562</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.98169247780767</v>
+        <v>10.98169247784473</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.32962659744489</v>
+        <v>33.3296265974475</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>42.14278972640729</v>
+        <v>42.14278972640774</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.21110851008179</v>
+        <v>33.21110851010714</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>43.15076765858204</v>
+        <v>43.15076765859182</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>49.77857816481755</v>
+        <v>49.7785781647881</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>11.79872580404959</v>
+        <v>11.79872580414145</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.51691491797784</v>
+        <v>34.51691491804424</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>44.51117595369398</v>
+        <v>44.51117595366078</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>14.89088335939654</v>
+        <v>14.8908833594029</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.00265303162827</v>
+        <v>34.00265303164635</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.34532071041225</v>
+        <v>42.34532071040543</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>11.30494216970716</v>
+        <v>11.30494216971682</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.27925784360265</v>
+        <v>30.27925784356399</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.08470909773065</v>
+        <v>38.08470909771167</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>19.03858553632712</v>
+        <v>19.03858553633894</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.38948187844996</v>
+        <v>41.38948187842472</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>50.20475662735738</v>
+        <v>50.20475662734306</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.27721667759103</v>
+        <v>41.27721667761615</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>51.21772735832475</v>
+        <v>51.217727358282</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>57.8468202900424</v>
+        <v>57.84682028998158</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>19.85809462122871</v>
+        <v>19.85809462127316</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.57918954427033</v>
+        <v>42.57918954426704</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.57553753178674</v>
+        <v>52.57553753176275</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-4.354652184847158</v>
+        <v>-4.354652184876148</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.74297305137635</v>
+        <v>14.74297305134702</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.08012779262425</v>
+        <v>23.08012779266643</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-7.933737811686559</v>
+        <v>-7.933737811664503</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.02718503330324</v>
+        <v>11.02718503330744</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.82646952409915</v>
+        <v>18.82646952408039</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-0.21054411277645</v>
+        <v>-0.2105441127396155</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.12590763142419</v>
+        <v>22.12590763147297</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.93523944940558</v>
+        <v>30.93523944942195</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.00483897207608</v>
+        <v>22.00483897205948</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.93545273072813</v>
+        <v>31.93545273068458</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>38.56146629711692</v>
+        <v>38.56146629714512</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>0.5998331461160085</v>
+        <v>0.5998331461199875</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.30065871403918</v>
+        <v>23.30065871408523</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.29355205511389</v>
+        <v>33.29355205512992</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-0.01321568605179735</v>
+        <v>-0.01321568604179291</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.09206025046855</v>
+        <v>19.09206025047582</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.43255767358188</v>
+        <v>27.43255767357028</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-3.608982223090255</v>
+        <v>-3.60898222307161</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>15.35777387580505</v>
+        <v>15.35777387578902</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.1617326200983</v>
+        <v>23.16173262007625</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.120957476542241</v>
+        <v>4.120957476575438</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.46502477979142</v>
+        <v>26.46502477981677</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>35.27798761641056</v>
+        <v>35.27798761642579</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.3464864624964</v>
+        <v>26.34648646250447</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.2845153195117</v>
+        <v>36.28451531946793</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.91258083101913</v>
+        <v>42.91258083104675</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>4.938412654127443</v>
+        <v>4.938412654124601</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.65224179186658</v>
+        <v>27.6522417918227</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.64653440060808</v>
+        <v>37.646534400595</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>8.032667648502876</v>
+        <v>8.032667648500375</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.14078052516085</v>
+        <v>27.14078052516187</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.4833307454012</v>
+        <v>35.48333074540234</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>4.444764550659453</v>
+        <v>4.444764550713341</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.41535732194906</v>
+        <v>23.41535732192973</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.22080868046545</v>
+        <v>31.22080868047091</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>12.17681532419625</v>
+        <v>12.17681532420762</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.52384478526041</v>
+        <v>34.52384478528269</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.33891892678254</v>
+        <v>43.33891892676412</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.41155870454874</v>
+        <v>34.41155870454976</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>44.35043892267278</v>
+        <v>44.35043892270393</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.97978678817653</v>
+        <v>50.97978678815629</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>12.99674599172887</v>
+        <v>12.99674599172148</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.71348058660682</v>
+        <v>35.71348058660864</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>45.70986007669582</v>
+        <v>45.70986007670639</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>3.290121845360101</v>
+        <v>3.290121845415012</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.38929241050529</v>
+        <v>22.38929241049597</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>30.72716120344422</v>
+        <v>30.72716120349709</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-0.2872461260610528</v>
+        <v>-0.2872461261014116</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.67518644884707</v>
+        <v>18.67518644883922</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.47520733898501</v>
+        <v>26.4752073389708</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>7.436404310038835</v>
+        <v>7.436404310027239</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.77463320645337</v>
+        <v>29.77463320650191</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>38.58470181160739</v>
+        <v>38.58470181162035</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.65324935404909</v>
+        <v>29.65324935408843</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.5850493146644</v>
+        <v>39.58504931466827</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.21134928766959</v>
+        <v>46.21134928765277</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>8.247282993483974</v>
+        <v>8.247282993489886</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.94980383537849</v>
+        <v>30.94980383542305</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.94359698141683</v>
+        <v>40.94359698140273</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.628389748881784</v>
+        <v>7.628389748905317</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.73521128419396</v>
+        <v>26.73521128421534</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.07642267321513</v>
+        <v>35.07642267324708</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>4.034339685673341</v>
+        <v>4.034339685693464</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.00260569158264</v>
+        <v>23.002605691579</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.80730086222389</v>
+        <v>30.80730086222901</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>11.76473617568821</v>
+        <v>11.76473617564387</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.11058089417112</v>
+        <v>34.11058089414929</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>42.92428043927875</v>
+        <v>42.92428043926715</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.9917276200821</v>
+        <v>33.99172762007665</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>43.93094296639471</v>
+        <v>43.93094296636197</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>50.5592948882428</v>
+        <v>50.55929488824235</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>12.58269330282929</v>
+        <v>12.58269330284896</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.29821814204935</v>
+        <v>35.29821814202388</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.29341033338575</v>
+        <v>45.29341033335994</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>15.67413183261216</v>
+        <v>15.67413183252451</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>34.78379033131161</v>
+        <v>34.78379033129796</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.12705466956233</v>
+        <v>43.12705466952993</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>12.08794606226037</v>
+        <v>12.08794606224127</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.06004877826878</v>
+        <v>31.0600487783097</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.86623665424612</v>
+        <v>38.86623665431684</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>19.82045353342313</v>
+        <v>19.82045353343677</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.1692604409666</v>
+        <v>42.16926044096205</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>50.98507146311091</v>
+        <v>50.98507146310432</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.05666001575322</v>
+        <v>42.05666001573185</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.99672677543221</v>
+        <v>51.9967267754047</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>58.62636112494637</v>
+        <v>58.62636112490522</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>20.64088652107104</v>
+        <v>20.64088652108536</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>43.35931678520002</v>
+        <v>43.35931678522651</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.35659601882368</v>
+        <v>53.35659601884221</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>8.345422370101812</v>
+        <v>8.345422370187872</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.4452812632294</v>
+        <v>27.44528126319939</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.78203451482331</v>
+        <v>35.78203451483252</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>4.76922285762522</v>
+        <v>4.769222857650572</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.73283926752584</v>
+        <v>23.73283926747457</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.53152303541516</v>
+        <v>31.53152303538094</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.49383227847933</v>
+        <v>12.49383227851082</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>34.83256872599897</v>
+        <v>34.83256872599021</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.64154068442475</v>
+        <v>43.64154068436984</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>34.71104591973155</v>
+        <v>34.71104591971097</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>44.64253429688939</v>
+        <v>44.64253429693578</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>51.26798658780037</v>
+        <v>51.26798658783902</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>13.30354996812538</v>
+        <v>13.30354996812765</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.00687052633397</v>
+        <v>36.00687052633192</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.99959072348669</v>
+        <v>45.99959072342394</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>12.68407988367222</v>
+        <v>12.68407988366756</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>31.79158942393725</v>
+        <v>31.79158942395771</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>40.13168470001644</v>
+        <v>40.13168469998017</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>9.091198824762966</v>
+        <v>9.091198824750347</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.06064839383295</v>
+        <v>28.06064839378565</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.86400571474327</v>
+        <v>35.86400571468904</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>16.82255431795978</v>
+        <v>16.82255431796331</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>39.16890628183479</v>
+        <v>39.16890628181342</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>47.9815086143707</v>
+        <v>47.98150861432761</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>39.04991386385417</v>
+        <v>39.04991386383018</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>48.9888171947721</v>
+        <v>48.98881719471832</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>55.6163210672462</v>
+        <v>55.61632106722153</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>17.63935028011748</v>
+        <v>17.63935028007974</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.35567423281033</v>
+        <v>40.35567423276451</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>50.34979298533632</v>
+        <v>50.34979298531779</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>20.72970958300506</v>
+        <v>20.72970958301427</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.84005603460209</v>
+        <v>39.84005603469804</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>48.18220420820298</v>
+        <v>48.18220420823651</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>17.1446923914557</v>
+        <v>17.1446923915271</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.11797861970003</v>
+        <v>36.11797861974004</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.92282857806414</v>
+        <v>43.9228285781012</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>24.87815884030716</v>
+        <v>24.87815884030159</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>47.22747291630016</v>
+        <v>47.22747291622558</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>56.04218667716431</v>
+        <v>56.04218667718045</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>47.1147329913547</v>
+        <v>47.11473299139074</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>57.05448773801358</v>
+        <v>57.05448773806815</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>63.68327405837046</v>
+        <v>63.68327405841082</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.69743030668281</v>
+        <v>25.69743030658755</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.41665987925786</v>
+        <v>48.41665987925161</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>58.41286551975067</v>
+        <v>58.41286551966643</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>3.068322799869303</v>
+        <v>3.068322799914437</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>22.16962386364993</v>
+        <v>22.16962386364458</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>30.50687335876934</v>
+        <v>30.50687335885153</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-0.508759130593706</v>
+        <v>-0.5087591305727877</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>18.45593888141094</v>
+        <v>18.45593888143243</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.2552008449352</v>
+        <v>26.25520084497522</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.215989067630755</v>
+        <v>7.215989067663269</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.55629857806344</v>
+        <v>29.55629857805628</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>38.36580734586097</v>
+        <v>38.36580734576434</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.43514992111762</v>
+        <v>29.43514992112695</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>39.36744923972005</v>
+        <v>39.36744923977882</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>45.99321063931701</v>
+        <v>45.99321063931406</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>8.025996222577543</v>
+        <v>8.025996222618016</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.73122033192091</v>
+        <v>30.73122033193512</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.72405430702339</v>
+        <v>40.72405430705705</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>7.405473480415491</v>
+        <v>7.405473480405259</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.51442550698642</v>
+        <v>26.51442550699745</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.85501739863629</v>
+        <v>34.85501739865198</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>3.811709178600619</v>
+        <v>3.811709178698504</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.7822406699919</v>
+        <v>22.78224066996348</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.58617661658117</v>
+        <v>30.58617661664176</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>11.54320384844187</v>
+        <v>11.5432038484479</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.8911291713729</v>
+        <v>33.89112917138722</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>42.70426868812707</v>
+        <v>42.7042686881281</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.77251101679146</v>
+        <v>33.77251101677213</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.71222562055972</v>
+        <v>43.71222562053721</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>50.34003890002079</v>
+        <v>50.34003890001431</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>12.36028970214273</v>
+        <v>12.36028970219071</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.07851754484467</v>
+        <v>35.07851754481352</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>45.07275076417513</v>
+        <v>45.07275076417308</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>15.45123118945652</v>
+        <v>15.45123118943105</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.56302014095128</v>
+        <v>34.56302014097584</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>42.90566514570754</v>
+        <v>42.90566514570936</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>11.86533110240715</v>
+        <v>11.8653311024599</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.83969924774454</v>
+        <v>30.83969924774727</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>38.64512807963264</v>
+        <v>38.64512807964287</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>19.598936775913</v>
+        <v>19.59893677599497</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.94982424427361</v>
+        <v>41.94982424422359</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>50.76507539646731</v>
+        <v>50.76507539644173</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.83745898637609</v>
+        <v>41.83745898637996</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>51.77802507968069</v>
+        <v>51.77802507969263</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>58.40712082087386</v>
+        <v>58.40712082087272</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>20.41849842408011</v>
+        <v>20.41849842403384</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.13963195056762</v>
+        <v>43.13963195051259</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>53.13595217862373</v>
+        <v>53.13595217862634</v>
       </c>
     </row>
   </sheetData>
